--- a/TESTING/legendre_out/DATA/p1/a2/p1_a2Fit.xlsx
+++ b/TESTING/legendre_out/DATA/p1/a2/p1_a2Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H229"/>
+  <dimension ref="A1:H223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,25 +408,25 @@
         <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
-        <v>1.816690617321701e-06</v>
+        <v>7.14040337721277e-07</v>
       </c>
       <c r="C2" t="n">
-        <v>2.510088623798232e-06</v>
+        <v>1.227071567492691e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>7.418215519299846e-08</v>
+        <v>4.229310836493852e-08</v>
       </c>
       <c r="E2" t="n">
-        <v>1.37057407659653e-07</v>
+        <v>1.010928179302423e-07</v>
       </c>
       <c r="F2" t="n">
-        <v>176.2138899433837</v>
+        <v>517.2348760110076</v>
       </c>
       <c r="G2" t="n">
-        <v>3.442639507679079e-36</v>
+        <v>1.519640129185322e-109</v>
       </c>
       <c r="H2" t="n">
-        <v>35.24277798867674</v>
+        <v>103.4469752022015</v>
       </c>
     </row>
     <row r="3">
@@ -434,25 +434,25 @@
         <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
-        <v>3.053503161505871e-06</v>
+        <v>2.827115953287261e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>3.457152742166969e-06</v>
+        <v>2.378101642522317e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>1.195879679534166e-07</v>
+        <v>1.136902054132711e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>2.121777675100134e-07</v>
+        <v>1.859112271420633e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>159.4644520280027</v>
+        <v>135.6451126951833</v>
       </c>
       <c r="G3" t="n">
-        <v>1.287340075385884e-32</v>
+        <v>1.506718948018326e-27</v>
       </c>
       <c r="H3" t="n">
-        <v>31.89289040560054</v>
+        <v>27.12902253903666</v>
       </c>
     </row>
     <row r="4">
@@ -460,5875 +460,5719 @@
         <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
-        <v>4.148183584666212e-06</v>
+        <v>3.4213588250238e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.035868226324303e-06</v>
+        <v>-2.106127763971881e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>1.797432568296714e-07</v>
+        <v>1.32346524464134e-07</v>
       </c>
       <c r="E4" t="n">
-        <v>2.012130244120997e-07</v>
+        <v>1.507156600807917e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>150.3309381091144</v>
+        <v>170.9979939561357</v>
       </c>
       <c r="G4" t="n">
-        <v>1.135221203487187e-30</v>
+        <v>4.468476678186343e-35</v>
       </c>
       <c r="H4" t="n">
-        <v>30.06618762182288</v>
+        <v>34.19959879122714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.432206382526072</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
-        <v>5.707245214819639e-06</v>
+        <v>4.302293460782835e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.222841483255317e-07</v>
+        <v>-5.92786321471912e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>2.239914235638728e-07</v>
+        <v>1.650261073397879e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>3.344935609616487e-07</v>
+        <v>2.665172342727817e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>83.11312576064772</v>
+        <v>127.7795050087858</v>
       </c>
       <c r="G5" t="n">
-        <v>1.871185785040491e-16</v>
+        <v>7.042056359970124e-26</v>
       </c>
       <c r="H5" t="n">
-        <v>16.62262515212954</v>
+        <v>25.55590100175717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
-        <v>6.053348057402419e-06</v>
+        <v>4.72371258566283e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>3.321460264827679e-06</v>
+        <v>-5.811013537280159e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>2.157281894570227e-07</v>
+        <v>1.817454908023021e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>3.620328181221196e-07</v>
+        <v>2.774299079510915e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>96.87210904958329</v>
+        <v>96.36680505806876</v>
       </c>
       <c r="G6" t="n">
-        <v>2.40981940946279e-19</v>
+        <v>3.0787377481523e-19</v>
       </c>
       <c r="H6" t="n">
-        <v>19.37442180991666</v>
+        <v>19.27336101161375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
-        <v>3.627616948749184e-06</v>
+        <v>4.938608436949749e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>1.660990961641037e-06</v>
+        <v>3.315817168911927e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>1.756939325562621e-07</v>
+        <v>1.843665592379445e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>2.578140982353973e-07</v>
+        <v>2.844764961886608e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>274.4498767766046</v>
+        <v>41.87222068755857</v>
       </c>
       <c r="G7" t="n">
-        <v>3.098977262915513e-57</v>
+        <v>6.251720828332374e-08</v>
       </c>
       <c r="H7" t="n">
-        <v>54.88997535532091</v>
+        <v>8.374444137511713</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
-        <v>6.883820466055415e-06</v>
+        <v>4.577877086514617e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>4.46153676552784e-07</v>
+        <v>7.756664971706102e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>2.719323071900995e-07</v>
+        <v>1.555151721371181e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>4.176297127377171e-07</v>
+        <v>2.502815540742392e-07</v>
       </c>
       <c r="F8" t="n">
-        <v>81.4074897491483</v>
+        <v>70.01162684915762</v>
       </c>
       <c r="G8" t="n">
-        <v>4.258998648014545e-16</v>
+        <v>1.019097248783966e-13</v>
       </c>
       <c r="H8" t="n">
-        <v>16.28149794982966</v>
+        <v>14.00232536983152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
-        <v>5.022560181815557e-06</v>
+        <v>4.994118324490685e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>5.406702966715865e-06</v>
+        <v>-1.248342776791771e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>1.761732894449074e-07</v>
+        <v>1.601869043084732e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>3.157092750339829e-07</v>
+        <v>2.440978220144544e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>149.7938830874084</v>
+        <v>44.28156757322643</v>
       </c>
       <c r="G9" t="n">
-        <v>1.47706612984798e-30</v>
+        <v>2.030535605624648e-08</v>
       </c>
       <c r="H9" t="n">
-        <v>29.95877661748168</v>
+        <v>8.856313514645285</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
-        <v>7.47770498031644e-06</v>
+        <v>3.794760041170811e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.835139131568462e-07</v>
+        <v>2.102964996948851e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>2.533293175018841e-07</v>
+        <v>1.555605860136857e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>3.468067067813677e-07</v>
+        <v>2.644967572926806e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>181.7828660240068</v>
+        <v>142.5153480498058</v>
       </c>
       <c r="G10" t="n">
-        <v>2.226628405420428e-37</v>
+        <v>5.222833665288192e-29</v>
       </c>
       <c r="H10" t="n">
-        <v>36.35657320480135</v>
+        <v>28.50306960996116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
-        <v>6.530455842912659e-06</v>
+        <v>4.825880955831833e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>1.234643635116012e-06</v>
+        <v>-1.068617969581523e-09</v>
       </c>
       <c r="D11" t="n">
-        <v>2.509747016936481e-07</v>
+        <v>1.800102797175426e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>4.063089064825059e-07</v>
+        <v>2.825212876464726e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>101.0283356959472</v>
+        <v>52.66633355292493</v>
       </c>
       <c r="G11" t="n">
-        <v>3.20841442963205e-20</v>
+        <v>3.937904084845244e-10</v>
       </c>
       <c r="H11" t="n">
-        <v>20.20566713918943</v>
+        <v>10.53326671058499</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
-        <v>6.521242498237518e-06</v>
+        <v>3.808776045900322e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.965901710852944e-06</v>
+        <v>7.342843393129625e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>2.669252617006687e-07</v>
+        <v>1.497629542132556e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>3.228305979979842e-07</v>
+        <v>2.433656112085471e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>182.1909173352108</v>
+        <v>290.1891348419454</v>
       </c>
       <c r="G12" t="n">
-        <v>1.821735117249047e-37</v>
+        <v>1.28692289888749e-60</v>
       </c>
       <c r="H12" t="n">
-        <v>36.43818346704217</v>
+        <v>58.03782696838907</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
-        <v>4.509343426304274e-06</v>
+        <v>3.428950367798614e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>3.451070817701399e-06</v>
+        <v>5.555668511000693e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>1.76116823432522e-07</v>
+        <v>1.282410689330316e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>2.781343806130334e-07</v>
+        <v>2.099813416452283e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>314.2608612862372</v>
+        <v>50.52174893105476</v>
       </c>
       <c r="G13" t="n">
-        <v>8.590422275947727e-66</v>
+        <v>1.083683494891098e-09</v>
       </c>
       <c r="H13" t="n">
-        <v>62.85217225724745</v>
+        <v>10.10434978621095</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
-        <v>6.126708037343117e-06</v>
+        <v>6.57928572499041e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>2.91037956564106e-06</v>
+        <v>5.252976234780436e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>2.062436655345901e-07</v>
+        <v>1.819357365083217e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>3.672405946344459e-07</v>
+        <v>2.862773001237083e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>5.49118925643166</v>
+        <v>6.914622869609799</v>
       </c>
       <c r="G14" t="n">
-        <v>0.358912978215767</v>
+        <v>0.2270677493952538</v>
       </c>
       <c r="H14" t="n">
-        <v>1.098237851286332</v>
+        <v>1.38292457392196</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
-        <v>9.568449875072383e-06</v>
+        <v>5.235013599883263e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>1.237850991218381e-06</v>
+        <v>8.601396143431546e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>2.694305677734075e-07</v>
+        <v>1.558801999704727e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>4.447018886928394e-07</v>
+        <v>2.48249121454125e-07</v>
       </c>
       <c r="F15" t="n">
-        <v>10.57938414331208</v>
+        <v>2.92250354070331</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06038764252795605</v>
+        <v>0.7119322463908631</v>
       </c>
       <c r="H15" t="n">
-        <v>2.115876828662416</v>
+        <v>0.5845007081406621</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
-        <v>8.364279362975275e-06</v>
+        <v>5.510874447693858e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>1.125424046837008e-06</v>
+        <v>-6.239811454474807e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>2.570425054612005e-07</v>
+        <v>1.847503905282874e-07</v>
       </c>
       <c r="E16" t="n">
-        <v>4.074135705789582e-07</v>
+        <v>2.768381889520426e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>76.58316423606303</v>
+        <v>28.74115561185009</v>
       </c>
       <c r="G16" t="n">
-        <v>4.34605159446335e-15</v>
+        <v>2.606224018281791e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>15.31663284721261</v>
+        <v>5.748231122370019</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
-        <v>7.368743017854516e-06</v>
+        <v>4.682209438370808e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>4.679678532916442e-08</v>
+        <v>6.922884106311952e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>2.57538842113874e-07</v>
+        <v>1.603686261254236e-07</v>
       </c>
       <c r="E17" t="n">
-        <v>4.106594089418503e-07</v>
+        <v>2.526930492608811e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>21.95628386773742</v>
+        <v>17.67319720594755</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0005337124910152273</v>
+        <v>0.003385136857723599</v>
       </c>
       <c r="H17" t="n">
-        <v>4.391256773547484</v>
+        <v>3.53463944118951</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
-        <v>8.089146782765782e-06</v>
+        <v>4.94827486227033e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>4.914105858370564e-07</v>
+        <v>1.169355479953968e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>2.738056528706661e-07</v>
+        <v>1.734891944839178e-07</v>
       </c>
       <c r="E18" t="n">
-        <v>4.354232848925642e-07</v>
+        <v>2.867701976921916e-07</v>
       </c>
       <c r="F18" t="n">
-        <v>15.64324235823585</v>
+        <v>23.45860258923445</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00794000043348362</v>
+        <v>0.0002757912251459155</v>
       </c>
       <c r="H18" t="n">
-        <v>3.12864847164717</v>
+        <v>4.69172051784689</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
-        <v>5.919559765782836e-06</v>
+        <v>6.128646590682525e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>4.727250277910499e-06</v>
+        <v>-1.381354039865352e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>2.190444697653083e-07</v>
+        <v>2.1219624174246e-07</v>
       </c>
       <c r="E19" t="n">
-        <v>3.830995320911858e-07</v>
+        <v>3.164234080549386e-07</v>
       </c>
       <c r="F19" t="n">
-        <v>89.54063507177939</v>
+        <v>15.98983060830742</v>
       </c>
       <c r="G19" t="n">
-        <v>8.391025035329795e-18</v>
+        <v>0.006873168045639572</v>
       </c>
       <c r="H19" t="n">
-        <v>17.90812701435588</v>
+        <v>3.197966121661484</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
-        <v>8.157661895669142e-06</v>
+        <v>5.303626762810257e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>4.229185381614554e-07</v>
+        <v>6.854770167422347e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>2.972416753142306e-07</v>
+        <v>2.088347281244351e-07</v>
       </c>
       <c r="E20" t="n">
-        <v>4.575759573429226e-07</v>
+        <v>3.471587819398036e-07</v>
       </c>
       <c r="F20" t="n">
-        <v>50.72043372921489</v>
+        <v>44.9186687140067</v>
       </c>
       <c r="G20" t="n">
-        <v>9.867713949463509e-10</v>
+        <v>1.50717696601424e-08</v>
       </c>
       <c r="H20" t="n">
-        <v>10.14408674584298</v>
+        <v>8.98373374280134</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
-        <v>7.375200007314358e-06</v>
+        <v>6.225550660560588e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>1.918672835930181e-06</v>
+        <v>2.2997598861806e-06</v>
       </c>
       <c r="D21" t="n">
-        <v>2.945726555706809e-07</v>
+        <v>2.426694784826417e-07</v>
       </c>
       <c r="E21" t="n">
-        <v>4.717863912351962e-07</v>
+        <v>4.165755036972632e-07</v>
       </c>
       <c r="F21" t="n">
-        <v>47.91021728229386</v>
+        <v>32.49701830063466</v>
       </c>
       <c r="G21" t="n">
-        <v>3.705012370329833e-09</v>
+        <v>4.735770987521872e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>9.582043456458772</v>
+        <v>6.499403660126933</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
-        <v>7.626856432273809e-06</v>
+        <v>1.044319074975857e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>4.496437199872319e-06</v>
+        <v>-1.316639487836651e-06</v>
       </c>
       <c r="D22" t="n">
-        <v>3.168362718645888e-07</v>
+        <v>5.021165542599879e-07</v>
       </c>
       <c r="E22" t="n">
-        <v>5.328663304333444e-07</v>
+        <v>6.967754208995161e-07</v>
       </c>
       <c r="F22" t="n">
-        <v>63.89856233648781</v>
+        <v>24.20925001688197</v>
       </c>
       <c r="G22" t="n">
-        <v>1.896202633111127e-12</v>
+        <v>0.0001979040717890818</v>
       </c>
       <c r="H22" t="n">
-        <v>12.77971246729756</v>
+        <v>4.841850003376394</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
-        <v>1.406894715306522e-05</v>
+        <v>1.320397889510945e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>-5.298238514975808e-07</v>
+        <v>-2.302569832337291e-07</v>
       </c>
       <c r="D23" t="n">
-        <v>7.145089870913087e-07</v>
+        <v>6.768726143376953e-07</v>
       </c>
       <c r="E23" t="n">
-        <v>1.038403166996658e-06</v>
+        <v>1.027424739195031e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>24.95195485212429</v>
+        <v>22.84461761019202</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001423417056448513</v>
+        <v>0.000361452049869372</v>
       </c>
       <c r="H23" t="n">
-        <v>4.990390970424857</v>
+        <v>4.568923522038404</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
-        <v>1.579080734025226e-05</v>
+        <v>1.759392680189717e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>4.844423639239563e-06</v>
+        <v>1.510314473215102e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>8.913796901351466e-07</v>
+        <v>9.097004041418256e-07</v>
       </c>
       <c r="E24" t="n">
-        <v>1.513413297482908e-06</v>
+        <v>1.414843089876231e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>27.87107460667265</v>
+        <v>30.1343880976643</v>
       </c>
       <c r="G24" t="n">
-        <v>3.857295594295876e-05</v>
+        <v>1.387692246790506e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>5.57421492133453</v>
+        <v>6.02687761953286</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
-        <v>2.870840774924385e-05</v>
+        <v>1.916363732944548e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>3.065189388681826e-06</v>
+        <v>-4.288661536217939e-07</v>
       </c>
       <c r="D25" t="n">
-        <v>1.447442942624859e-06</v>
+        <v>9.018290686560911e-07</v>
       </c>
       <c r="E25" t="n">
-        <v>2.185050089407302e-06</v>
+        <v>1.3659820777735e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>21.11155162993409</v>
+        <v>27.19571971972094</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0007716748774187666</v>
+        <v>5.224803749862528e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>4.222310325986818</v>
+        <v>5.439143943944189</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
-        <v>2.558398692277786e-05</v>
+        <v>1.657556299021311e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.11357659361434e-06</v>
+        <v>-3.162113664313236e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>1.282127774017705e-06</v>
+        <v>8.696334844553086e-07</v>
       </c>
       <c r="E26" t="n">
-        <v>1.872708084426298e-06</v>
+        <v>1.224735521346064e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>36.97337403134038</v>
+        <v>54.90249921731967</v>
       </c>
       <c r="G26" t="n">
-        <v>6.063544443600616e-07</v>
+        <v>1.367062945922281e-10</v>
       </c>
       <c r="H26" t="n">
-        <v>7.394674806268076</v>
+        <v>10.98049984346394</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
-        <v>2.825723102184277e-05</v>
+        <v>2.039751560695078e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>-6.00008419702358e-06</v>
+        <v>5.323719005315338e-07</v>
       </c>
       <c r="D27" t="n">
-        <v>1.415309208294977e-06</v>
+        <v>9.833296999096397e-07</v>
       </c>
       <c r="E27" t="n">
-        <v>1.969472206105711e-06</v>
+        <v>1.49546788767102e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>19.56592464038876</v>
+        <v>2.193854510634856</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001507110956046156</v>
+        <v>0.8217231495685484</v>
       </c>
       <c r="H27" t="n">
-        <v>3.913184928077752</v>
+        <v>0.4387709021269712</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
-        <v>2.774016341867919e-05</v>
+        <v>1.861164529040426e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>1.107879066738467e-06</v>
+        <v>1.246486085869418e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>1.420237548312075e-06</v>
+        <v>9.31947104560159e-07</v>
       </c>
       <c r="E28" t="n">
-        <v>2.145599617752968e-06</v>
+        <v>1.41960643037973e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>8.49367097214582</v>
+        <v>33.51734345226971</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1310456047837257</v>
+        <v>2.970216453146816e-06</v>
       </c>
       <c r="H28" t="n">
-        <v>1.698734194429164</v>
+        <v>6.703468690453943</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
-        <v>2.618999090640943e-05</v>
+        <v>1.980750928938622e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.962424672647623e-06</v>
+        <v>-2.714570178065415e-07</v>
       </c>
       <c r="D29" t="n">
-        <v>1.400182034144305e-06</v>
+        <v>9.350595907860705e-07</v>
       </c>
       <c r="E29" t="n">
-        <v>1.834557135737406e-06</v>
+        <v>1.454664848882258e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>39.81724880638571</v>
+        <v>55.26352240713651</v>
       </c>
       <c r="G29" t="n">
-        <v>1.62559794403222e-07</v>
+        <v>1.152155008108153e-10</v>
       </c>
       <c r="H29" t="n">
-        <v>7.963449761277142</v>
+        <v>11.0527044814273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
-        <v>2.937138090378907e-05</v>
+        <v>1.923445422529689e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>3.510728826571433e-06</v>
+        <v>-2.954755485049559e-07</v>
       </c>
       <c r="D30" t="n">
-        <v>1.399342236607595e-06</v>
+        <v>9.118132625263204e-07</v>
       </c>
       <c r="E30" t="n">
-        <v>2.219615828698972e-06</v>
+        <v>1.383810604938201e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>35.38262467445013</v>
+        <v>22.58835767901011</v>
       </c>
       <c r="G30" t="n">
-        <v>1.261950848314538e-06</v>
+        <v>0.0004045422975945961</v>
       </c>
       <c r="H30" t="n">
-        <v>7.076524934890026</v>
+        <v>4.517671535802021</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
-        <v>2.294336153979376e-05</v>
+        <v>1.853457748012501e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.51197159628925e-06</v>
+        <v>-5.479712240613634e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>1.238616232971978e-06</v>
+        <v>9.388949357269747e-07</v>
       </c>
       <c r="E31" t="n">
-        <v>1.802582644376345e-06</v>
+        <v>1.265906012639057e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>93.95926073893037</v>
+        <v>47.79018412590696</v>
       </c>
       <c r="G31" t="n">
-        <v>9.886104140808509e-19</v>
+        <v>3.920010019998721e-09</v>
       </c>
       <c r="H31" t="n">
-        <v>18.79185214778607</v>
+        <v>9.558036825181393</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
-        <v>2.172111559159037e-05</v>
+        <v>1.801869540316572e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>1.705350284873208e-06</v>
+        <v>3.556129886023824e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>1.19500950916527e-06</v>
+        <v>8.850975929598233e-07</v>
       </c>
       <c r="E32" t="n">
-        <v>1.740438714525424e-06</v>
+        <v>1.39485460332906e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>66.16780159046256</v>
+        <v>11.61720908405142</v>
       </c>
       <c r="G32" t="n">
-        <v>6.414621626578111e-13</v>
+        <v>0.04042652790920929</v>
       </c>
       <c r="H32" t="n">
-        <v>13.23356031809251</v>
+        <v>2.323441816810284</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
-        <v>2.600013122049072e-05</v>
+        <v>1.692666572646929e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>8.551273561483765e-06</v>
+        <v>4.540803681706748e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>1.301548613354875e-06</v>
+        <v>8.028215531045876e-07</v>
       </c>
       <c r="E33" t="n">
-        <v>2.100296663304518e-06</v>
+        <v>1.299154545597887e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>10.70536775563172</v>
+        <v>18.86365854715784</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05754494003467564</v>
+        <v>0.002037819742901423</v>
       </c>
       <c r="H33" t="n">
-        <v>2.141073551126345</v>
+        <v>3.772731709431567</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
-        <v>2.635361033799168e-05</v>
+        <v>1.913808216352462e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>2.442011355936954e-06</v>
+        <v>-8.370312326262678e-07</v>
       </c>
       <c r="D34" t="n">
-        <v>1.285308871410318e-06</v>
+        <v>9.353830507150241e-07</v>
       </c>
       <c r="E34" t="n">
-        <v>2.019630292630564e-06</v>
+        <v>1.352841274442208e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>10.1164668614714</v>
+        <v>9.582046709584295</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07200167300643445</v>
+        <v>0.08798188141017831</v>
       </c>
       <c r="H34" t="n">
-        <v>2.02329337229428</v>
+        <v>1.916409341916859</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
-        <v>2.861809525363702e-05</v>
+        <v>1.796568073511493e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.533272654322236e-06</v>
+        <v>2.587523744982485e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>1.438026734730948e-06</v>
+        <v>8.338442008404457e-07</v>
       </c>
       <c r="E35" t="n">
-        <v>2.125214795063296e-06</v>
+        <v>1.333463823038268e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>10.24835129835724</v>
+        <v>12.04343033251094</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06849648974065116</v>
+        <v>0.03419750632455465</v>
       </c>
       <c r="H35" t="n">
-        <v>2.049670259671447</v>
+        <v>2.408686066502188</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
-        <v>2.552670076522376e-05</v>
+        <v>1.699596870880257e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>8.719035737097495e-06</v>
+        <v>2.983191097474855e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>1.204696398760086e-06</v>
+        <v>7.623547210604133e-07</v>
       </c>
       <c r="E36" t="n">
-        <v>1.955392796316005e-06</v>
+        <v>1.199351856876202e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>15.05894147204816</v>
+        <v>2.744497007618317</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01011343678626833</v>
+        <v>0.7393048574907165</v>
       </c>
       <c r="H36" t="n">
-        <v>3.011788294409631</v>
+        <v>0.5488994015236635</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
-        <v>2.474578199743323e-05</v>
+        <v>1.170970307728833e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>3.479460238835725e-06</v>
+        <v>-8.882581184945558e-07</v>
       </c>
       <c r="D37" t="n">
-        <v>1.149667500009521e-06</v>
+        <v>5.766035517144039e-07</v>
       </c>
       <c r="E37" t="n">
-        <v>1.793173239077773e-06</v>
+        <v>9.100362392261091e-07</v>
       </c>
       <c r="F37" t="n">
-        <v>10.38645958260589</v>
+        <v>66.6407931625231</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06499698408226233</v>
+        <v>5.116404101946548e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>2.077291916521177</v>
+        <v>13.32815863250462</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
-        <v>1.964553594963918e-05</v>
+        <v>1.163137105963701e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>3.57769769730398e-06</v>
+        <v>1.613838043715284e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>8.978921635943195e-07</v>
+        <v>4.988723115387233e-07</v>
       </c>
       <c r="E38" t="n">
-        <v>1.423838448333093e-06</v>
+        <v>8.002402330642708e-07</v>
       </c>
       <c r="F38" t="n">
-        <v>9.374210003662997</v>
+        <v>30.39464941123301</v>
       </c>
       <c r="G38" t="n">
-        <v>0.09503731560857172</v>
+        <v>1.233170718381938e-05</v>
       </c>
       <c r="H38" t="n">
-        <v>1.874842000732599</v>
+        <v>6.078929882246602</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
-        <v>1.973957728436641e-05</v>
+        <v>9.634840673248265e-06</v>
       </c>
       <c r="C39" t="n">
-        <v>2.469587070630325e-06</v>
+        <v>2.765136430355206e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>8.259118368890407e-07</v>
+        <v>4.010329090217235e-07</v>
       </c>
       <c r="E39" t="n">
-        <v>1.345212949617972e-06</v>
+        <v>6.801483625087153e-07</v>
       </c>
       <c r="F39" t="n">
-        <v>12.01519697703164</v>
+        <v>100.1184187637979</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03458013912142411</v>
+        <v>4.989977598206061e-20</v>
       </c>
       <c r="H39" t="n">
-        <v>2.403039395406327</v>
+        <v>20.02368375275957</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
-        <v>1.359810131934269e-05</v>
+        <v>1.176793683124876e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>8.587492144475168e-06</v>
+        <v>1.084646113149902e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>5.476570112604258e-07</v>
+        <v>5.279861790163355e-07</v>
       </c>
       <c r="E40" t="n">
-        <v>9.098441794695338e-07</v>
+        <v>8.390424930162675e-07</v>
       </c>
       <c r="F40" t="n">
-        <v>70.18926640953146</v>
+        <v>15.9915645997172</v>
       </c>
       <c r="G40" t="n">
-        <v>9.359358627151253e-14</v>
+        <v>0.006868198679326824</v>
       </c>
       <c r="H40" t="n">
-        <v>14.03785328190629</v>
+        <v>3.19831291994344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
-        <v>1.658585697575215e-05</v>
+        <v>1.73752545986708e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>3.607125400677528e-06</v>
+        <v>7.467453038730433e-07</v>
       </c>
       <c r="D41" t="n">
-        <v>7.592293757943592e-07</v>
+        <v>5.51957012385715e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>1.205601219355445e-06</v>
+        <v>8.696601110546594e-07</v>
       </c>
       <c r="F41" t="n">
-        <v>14.9528037138003</v>
+        <v>8.615729368204637</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01056591537808652</v>
+        <v>0.1254084883025716</v>
       </c>
       <c r="H41" t="n">
-        <v>2.99056074276006</v>
+        <v>1.723145873640927</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
-        <v>2.54899930572276e-05</v>
+        <v>1.771937861172105e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>2.003747850197792e-06</v>
+        <v>1.682101267221519e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>8.276247074067186e-07</v>
+        <v>5.025947124574047e-07</v>
       </c>
       <c r="E42" t="n">
-        <v>1.334336005595159e-06</v>
+        <v>8.085224712047397e-07</v>
       </c>
       <c r="F42" t="n">
-        <v>6.564808874171622</v>
+        <v>15.07049216626802</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2550688373378615</v>
+        <v>0.01006534432157583</v>
       </c>
       <c r="H42" t="n">
-        <v>1.312961774834324</v>
+        <v>3.014098433253605</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
-        <v>2.496930981879844e-05</v>
+        <v>1.648726795066369e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>6.279177572160435e-06</v>
+        <v>1.703805570246615e-06</v>
       </c>
       <c r="D43" t="n">
-        <v>7.14375249529609e-07</v>
+        <v>4.459649099077239e-07</v>
       </c>
       <c r="E43" t="n">
-        <v>1.180469894811076e-06</v>
+        <v>7.228994580141351e-07</v>
       </c>
       <c r="F43" t="n">
-        <v>23.49672429170095</v>
+        <v>4.470851204990142</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0002711903706646187</v>
+        <v>0.4837928946099532</v>
       </c>
       <c r="H43" t="n">
-        <v>4.699344858340191</v>
+        <v>0.8941702409980283</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
-        <v>2.474323965056283e-05</v>
+        <v>1.48707753431954e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>2.262291310337895e-06</v>
+        <v>1.253492995593521e-06</v>
       </c>
       <c r="D44" t="n">
-        <v>6.81397500437272e-07</v>
+        <v>3.968453515711447e-07</v>
       </c>
       <c r="E44" t="n">
-        <v>1.103213724700299e-06</v>
+        <v>6.363058366822657e-07</v>
       </c>
       <c r="F44" t="n">
-        <v>4.110814228516446</v>
+        <v>7.443137959887866</v>
       </c>
       <c r="G44" t="n">
-        <v>0.53357435093798</v>
+        <v>0.1897136844779337</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8221628457032892</v>
+        <v>1.488627591977573</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
-        <v>2.225142982593475e-05</v>
+        <v>1.57230254748367e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>1.695442242866639e-06</v>
+        <v>1.27556534911876e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>6.005752288281179e-07</v>
+        <v>4.114453736887889e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>9.637580474459336e-07</v>
+        <v>6.648207827098153e-07</v>
       </c>
       <c r="F45" t="n">
-        <v>4.614173231288532</v>
+        <v>4.752978007078559</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4647542686232735</v>
+        <v>0.4467646722296253</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9228346462577065</v>
+        <v>0.9505956014157118</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
-        <v>2.301479608451052e-05</v>
+        <v>1.525368385041286e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>3.504732013229291e-06</v>
+        <v>3.865335410555976e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>6.087930623585788e-07</v>
+        <v>3.929805843717634e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>1.015680586501243e-06</v>
+        <v>6.223732768081736e-07</v>
       </c>
       <c r="F46" t="n">
-        <v>2.00875251424906</v>
+        <v>3.771602445777137</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8479326378203695</v>
+        <v>0.5827454339945384</v>
       </c>
       <c r="H46" t="n">
-        <v>0.401750502849812</v>
+        <v>0.7543204891554274</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
-        <v>2.218555035551712e-05</v>
+        <v>1.019486152345244e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>3.414647939576035e-07</v>
+        <v>1.447016711050002e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>5.798468121230897e-07</v>
+        <v>2.793562038553631e-07</v>
       </c>
       <c r="E47" t="n">
-        <v>9.171465350142853e-07</v>
+        <v>4.532610819317175e-07</v>
       </c>
       <c r="F47" t="n">
-        <v>1.385991313681656</v>
+        <v>4.811974999745191</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9258395173940591</v>
+        <v>0.4392554590822264</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2771982627363312</v>
+        <v>0.9623949999490382</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
-        <v>1.535383820634941e-05</v>
+        <v>1.379476943330958e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>2.36327388515494e-06</v>
+        <v>1.510190550768948e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>4.271561624188535e-07</v>
+        <v>3.676550387818531e-07</v>
       </c>
       <c r="E48" t="n">
-        <v>7.006610173973944e-07</v>
+        <v>6.066991416763553e-07</v>
       </c>
       <c r="F48" t="n">
-        <v>3.037765992165139</v>
+        <v>15.86238721630542</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6941632919921744</v>
+        <v>0.007248146840024803</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6075531984330278</v>
+        <v>3.172477443261084</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
-        <v>2.04083971528424e-05</v>
+        <v>2.062406776604624e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>1.367144608602445e-06</v>
+        <v>1.196057357278595e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>5.532089087323063e-07</v>
+        <v>5.286622857008254e-07</v>
       </c>
       <c r="E49" t="n">
-        <v>8.994081162641999e-07</v>
+        <v>8.538078270012681e-07</v>
       </c>
       <c r="F49" t="n">
-        <v>2.92959723998786</v>
+        <v>8.713417628196096</v>
       </c>
       <c r="G49" t="n">
-        <v>0.7108390445408719</v>
+        <v>0.1210555877815622</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5859194479975721</v>
+        <v>1.742683525639219</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
-        <v>3.051033714598852e-05</v>
+        <v>3.01816503224958e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>2.375146932327982e-06</v>
+        <v>2.579579885327341e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>7.912505249964516e-07</v>
+        <v>7.666113496378798e-07</v>
       </c>
       <c r="E50" t="n">
-        <v>1.308127807749256e-06</v>
+        <v>1.271126877410268e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>11.25839458016435</v>
+        <v>10.26958185038621</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04649075883937743</v>
+        <v>0.06794732817061355</v>
       </c>
       <c r="H50" t="n">
-        <v>2.25167891603287</v>
+        <v>2.053916370077242</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
-        <v>4.442743860166382e-05</v>
+        <v>4.096298626718871e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>4.540395616472457e-06</v>
+        <v>-9.253871718879698e-08</v>
       </c>
       <c r="D51" t="n">
-        <v>1.13915396490018e-06</v>
+        <v>9.968014809819714e-07</v>
       </c>
       <c r="E51" t="n">
-        <v>1.866953888863627e-06</v>
+        <v>1.576662295178966e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>10.75566706215252</v>
+        <v>4.156812355533968</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05644546620023647</v>
+        <v>0.5270669666623291</v>
       </c>
       <c r="H51" t="n">
-        <v>2.151133412430503</v>
+        <v>0.8313624711067936</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
-        <v>6.124235973981108e-05</v>
+        <v>8.661471636220722e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>3.562940284370633e-07</v>
+        <v>6.772197544168966e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>1.498242449914445e-06</v>
+        <v>2.130809706960547e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>2.386372542187062e-06</v>
+        <v>3.470753130315363e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>1.946097074802255</v>
+        <v>2.667249572320877</v>
       </c>
       <c r="G52" t="n">
-        <v>0.8565521505270106</v>
+        <v>0.7511227311092803</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3892194149604509</v>
+        <v>0.5334499144641753</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001268299563397185</v>
+        <v>0.0001458498615322326</v>
       </c>
       <c r="C53" t="n">
-        <v>1.116622494392484e-05</v>
+        <v>4.1865845262811e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>3.16438832888372e-06</v>
+        <v>3.486663606503925e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>5.218177723114372e-06</v>
+        <v>5.551166998124831e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>3.383749004455966</v>
+        <v>2.342356808991009</v>
       </c>
       <c r="G53" t="n">
-        <v>0.6410461569086084</v>
+        <v>0.8000262318022875</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6767498008911932</v>
+        <v>0.4684713617982018</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
-        <v>0.000217694864024219</v>
+        <v>0.0004035708767424998</v>
       </c>
       <c r="C54" t="n">
-        <v>5.208667165239892e-06</v>
+        <v>3.016727638154178e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>5.252639524362851e-06</v>
+        <v>9.573220011320219e-06</v>
       </c>
       <c r="E54" t="n">
-        <v>8.397811129091399e-06</v>
+        <v>1.568961208793425e-05</v>
       </c>
       <c r="F54" t="n">
-        <v>1.659985695900923</v>
+        <v>4.066277101767922</v>
       </c>
       <c r="G54" t="n">
-        <v>0.8939018148097446</v>
+        <v>0.5399137091166173</v>
       </c>
       <c r="H54" t="n">
-        <v>0.3319971391801845</v>
+        <v>0.8132554203535844</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0005913140749238895</v>
+        <v>0.0006532596304860081</v>
       </c>
       <c r="C55" t="n">
-        <v>6.19112161365673e-05</v>
+        <v>3.38477595164469e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>1.411167154860525e-05</v>
+        <v>1.512256579832101e-05</v>
       </c>
       <c r="E55" t="n">
-        <v>2.327795118330731e-05</v>
+        <v>2.469767563927934e-05</v>
       </c>
       <c r="F55" t="n">
-        <v>3.620415279181057</v>
+        <v>3.284936378037203</v>
       </c>
       <c r="G55" t="n">
-        <v>0.6052506590413506</v>
+        <v>0.6561486933523906</v>
       </c>
       <c r="H55" t="n">
-        <v>0.7240830558362115</v>
+        <v>0.6569872756074406</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0009584095316234836</v>
+        <v>0.0007194658432518824</v>
       </c>
       <c r="C56" t="n">
-        <v>6.657970652575607e-05</v>
+        <v>2.261148626912714e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>2.230300296834624e-05</v>
+        <v>1.633798485902336e-05</v>
       </c>
       <c r="E56" t="n">
-        <v>3.654772359039402e-05</v>
+        <v>2.655900692914809e-05</v>
       </c>
       <c r="F56" t="n">
-        <v>1.847471500798708</v>
+        <v>3.303460234016856</v>
       </c>
       <c r="G56" t="n">
-        <v>0.8698219785729266</v>
+        <v>0.6533119640359975</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3694943001597417</v>
+        <v>0.6606920468033711</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001063573829917982</v>
+        <v>0.0005811147721672745</v>
       </c>
       <c r="C57" t="n">
-        <v>4.761700841378965e-05</v>
+        <v>4.70817457493487e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>2.424961536835155e-05</v>
+        <v>1.324816442430612e-05</v>
       </c>
       <c r="E57" t="n">
-        <v>3.949828007835756e-05</v>
+        <v>2.192737087471124e-05</v>
       </c>
       <c r="F57" t="n">
-        <v>2.941055616661827</v>
+        <v>3.657488257103619</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7090730145905721</v>
+        <v>0.5997028721420457</v>
       </c>
       <c r="H57" t="n">
-        <v>0.5882111233323655</v>
+        <v>0.7314976514207239</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0008577423090683208</v>
+        <v>0.000301104852338902</v>
       </c>
       <c r="C58" t="n">
-        <v>7.90087846393345e-05</v>
+        <v>1.301297324948425e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>1.965906549407901e-05</v>
+        <v>6.902982426411419e-06</v>
       </c>
       <c r="E58" t="n">
-        <v>3.259176391219178e-05</v>
+        <v>1.123502780729245e-05</v>
       </c>
       <c r="F58" t="n">
-        <v>1.982116404581514</v>
+        <v>4.610390441352962</v>
       </c>
       <c r="G58" t="n">
-        <v>0.8516140012755543</v>
+        <v>0.465250781488773</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3964232809163028</v>
+        <v>0.9220780882705923</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0004398594072266897</v>
+        <v>0.0002310343318333634</v>
       </c>
       <c r="C59" t="n">
-        <v>3.053627082067888e-05</v>
+        <v>1.144457293596288e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>1.011770699553294e-05</v>
+        <v>5.314830743332595e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>1.649283936227037e-05</v>
+        <v>8.688410345894439e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>2.978815527077113</v>
+        <v>4.275704546031882</v>
       </c>
       <c r="G59" t="n">
-        <v>0.7032520240393375</v>
+        <v>0.5104417305082132</v>
       </c>
       <c r="H59" t="n">
-        <v>0.5957631054154225</v>
+        <v>0.8551409092063764</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0003390038704107254</v>
+        <v>0.0002938585242383925</v>
       </c>
       <c r="C60" t="n">
-        <v>2.606532998731848e-05</v>
+        <v>1.623893705790386e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>7.816792423203548e-06</v>
+        <v>6.672744438818619e-06</v>
       </c>
       <c r="E60" t="n">
-        <v>1.275791327483858e-05</v>
+        <v>1.105419849898993e-05</v>
       </c>
       <c r="F60" t="n">
-        <v>2.992177323978447</v>
+        <v>7.828107690469076</v>
       </c>
       <c r="G60" t="n">
-        <v>0.7011919365947222</v>
+        <v>0.1659668528923335</v>
       </c>
       <c r="H60" t="n">
-        <v>0.5984354647956895</v>
+        <v>1.565621538093815</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0004321523389448482</v>
+        <v>0.0001293563669258997</v>
       </c>
       <c r="C61" t="n">
-        <v>3.029990976223789e-05</v>
+        <v>1.071696223207768e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>9.843502197095487e-06</v>
+        <v>2.955349707932431e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>1.623120563435897e-05</v>
+        <v>4.889905301175663e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>6.626935355870684</v>
+        <v>3.826596613487857</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2498963282697418</v>
+        <v>0.5746422184995924</v>
       </c>
       <c r="H61" t="n">
-        <v>1.325387071174137</v>
+        <v>0.7653193226975714</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0001911741103934529</v>
+        <v>9.320598170771725e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>1.787618962107004e-05</v>
+        <v>4.100380643116464e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>4.391992063347332e-06</v>
+        <v>2.098564014947858e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>7.29072070049168e-06</v>
+        <v>3.409302892607601e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>1.357222059830283</v>
+        <v>0.8100677403578082</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9289349013572099</v>
+        <v>0.9763867517569861</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2714444119660565</v>
+        <v>0.1620135480715616</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0001369769122253814</v>
+        <v>5.382130063833359e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>7.749480459152318e-06</v>
+        <v>2.491769169922498e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>3.101881820237691e-06</v>
+        <v>1.24039679308828e-06</v>
       </c>
       <c r="E63" t="n">
-        <v>5.076018291360935e-06</v>
+        <v>2.004640554899043e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8549442329883669</v>
+        <v>3.678146492942112</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9733972743512923</v>
+        <v>0.5966194259289834</v>
       </c>
       <c r="H63" t="n">
-        <v>0.1709888465976734</v>
+        <v>0.7356292985884224</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
-        <v>7.910968318953361e-05</v>
+        <v>2.857849186299172e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>4.747175535500761e-06</v>
+        <v>1.161014657924557e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>1.839115871479939e-06</v>
+        <v>6.862182052167724e-07</v>
       </c>
       <c r="E64" t="n">
-        <v>3.011432928820043e-06</v>
+        <v>1.121140267700959e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>2.933870166164148</v>
+        <v>8.390542649030994</v>
       </c>
       <c r="G64" t="n">
-        <v>0.7101805032089459</v>
+        <v>0.1359850568163694</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5867740332328297</v>
+        <v>1.678108529806199</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
-        <v>4.249810654483944e-05</v>
+        <v>2.192425996615941e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1.04637980920617e-06</v>
+        <v>1.302090153303204e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>1.02944916974719e-06</v>
+        <v>6.482074442162385e-07</v>
       </c>
       <c r="E65" t="n">
-        <v>1.667111528917341e-06</v>
+        <v>1.030140124133768e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>3.998682958438122</v>
+        <v>6.536435671890143</v>
       </c>
       <c r="G65" t="n">
-        <v>0.5496055892155742</v>
+        <v>0.2574603462813097</v>
       </c>
       <c r="H65" t="n">
-        <v>0.7997365916876243</v>
+        <v>1.307287134378029</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
-        <v>3.247260936743598e-05</v>
+        <v>2.254044044122116e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>3.019549357685135e-06</v>
+        <v>1.043738601120189e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>9.763588650921314e-07</v>
+        <v>8.9482164724498e-07</v>
       </c>
       <c r="E66" t="n">
-        <v>1.584277132633425e-06</v>
+        <v>1.404005824088774e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>10.14424149883535</v>
+        <v>7.238344831177574</v>
       </c>
       <c r="G66" t="n">
-        <v>0.07124988184147221</v>
+        <v>0.2035091876742411</v>
       </c>
       <c r="H66" t="n">
-        <v>2.028848299767071</v>
+        <v>1.447668966235515</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
-        <v>3.168270996272149e-05</v>
+        <v>2.627419760366878e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>3.148549416343612e-06</v>
+        <v>2.704808134312937e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>1.303571147636914e-06</v>
+        <v>1.100185055485905e-06</v>
       </c>
       <c r="E67" t="n">
-        <v>2.064231531868469e-06</v>
+        <v>1.700076517889051e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>2.262869030257173</v>
+        <v>3.076094668273799</v>
       </c>
       <c r="G67" t="n">
-        <v>0.8117046711660437</v>
+        <v>0.6882553980626691</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4525738060514345</v>
+        <v>0.6152189336547599</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
-        <v>3.834477605126996e-05</v>
+        <v>3.477559819448385e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>1.246939603431899e-06</v>
+        <v>4.986671701373755e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>1.6769438904571e-06</v>
+        <v>1.659213711544787e-06</v>
       </c>
       <c r="E68" t="n">
-        <v>2.588087762058471e-06</v>
+        <v>2.648059215076765e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>5.396926991760915</v>
+        <v>11.60457593141099</v>
       </c>
       <c r="G68" t="n">
-        <v>0.3693806132686043</v>
+        <v>0.04062666429523598</v>
       </c>
       <c r="H68" t="n">
-        <v>1.079385398352183</v>
+        <v>2.320915186282198</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
-        <v>5.341437109620922e-05</v>
+        <v>3.330342863356846e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>8.057780813234904e-06</v>
+        <v>2.117055057254996e-06</v>
       </c>
       <c r="D69" t="n">
-        <v>2.566053653701349e-06</v>
+        <v>1.441639791474338e-06</v>
       </c>
       <c r="E69" t="n">
-        <v>4.089243615997508e-06</v>
+        <v>2.249043038791302e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>7.076512732637033</v>
+        <v>14.5192173874882</v>
       </c>
       <c r="G69" t="n">
-        <v>0.2150118722724393</v>
+        <v>0.0126268585368089</v>
       </c>
       <c r="H69" t="n">
-        <v>1.415302546527407</v>
+        <v>2.903843477497639</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
-        <v>4.866380416786839e-05</v>
+        <v>6.849711710817737e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>9.233514472909008e-06</v>
+        <v>1.222594826036606e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>2.136090394107041e-06</v>
+        <v>2.817723843899357e-06</v>
       </c>
       <c r="E70" t="n">
-        <v>3.388412240486601e-06</v>
+        <v>4.429437515956447e-06</v>
       </c>
       <c r="F70" t="n">
-        <v>15.89601539854571</v>
+        <v>6.987164723948815</v>
       </c>
       <c r="G70" t="n">
-        <v>0.007147311288878273</v>
+        <v>0.2215966353449122</v>
       </c>
       <c r="H70" t="n">
-        <v>3.179203079709142</v>
+        <v>1.397432944789763</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
-        <v>9.938157680477053e-05</v>
+        <v>0.0001072387487595831</v>
       </c>
       <c r="C71" t="n">
-        <v>1.590146552694693e-05</v>
+        <v>1.035866245296394e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>4.264295189029203e-06</v>
+        <v>4.289936887480179e-06</v>
       </c>
       <c r="E71" t="n">
-        <v>6.838275561606621e-06</v>
+        <v>6.715329891008808e-06</v>
       </c>
       <c r="F71" t="n">
-        <v>1.524625891372153</v>
+        <v>8.005654942187139</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9102106170850922</v>
+        <v>0.1559242478750424</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3049251782744306</v>
+        <v>1.601130988437428</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0001480665708158932</v>
+        <v>0.0002572842324402023</v>
       </c>
       <c r="C72" t="n">
-        <v>3.270455591337854e-05</v>
+        <v>1.069779252811133e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>6.160220112350839e-06</v>
+        <v>6.374754335449002e-06</v>
       </c>
       <c r="E72" t="n">
-        <v>9.865235634305529e-06</v>
+        <v>1.022344093663269e-05</v>
       </c>
       <c r="F72" t="n">
-        <v>15.5653588711346</v>
+        <v>4.685654244306622</v>
       </c>
       <c r="G72" t="n">
-        <v>0.008201028414349514</v>
+        <v>0.4554340218618602</v>
       </c>
       <c r="H72" t="n">
-        <v>3.11307177422692</v>
+        <v>0.9371308488613245</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0003770376497675401</v>
+        <v>0.00065209201293089</v>
       </c>
       <c r="C73" t="n">
-        <v>2.496637498405229e-05</v>
+        <v>3.670992447807705e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>9.433563116853366e-06</v>
+        <v>1.579696096685917e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>1.523914251259105e-05</v>
+        <v>2.565221320054181e-05</v>
       </c>
       <c r="F73" t="n">
-        <v>4.168280486225283</v>
+        <v>5.482821754305085</v>
       </c>
       <c r="G73" t="n">
-        <v>0.5254509923641414</v>
+        <v>0.3598332150903695</v>
       </c>
       <c r="H73" t="n">
-        <v>0.8336560972450566</v>
+        <v>1.096564350861017</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0009637004359216051</v>
+        <v>0.0006457032091558429</v>
       </c>
       <c r="C74" t="n">
-        <v>7.365888329618814e-05</v>
+        <v>2.670687456932683e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>2.354122948362198e-05</v>
+        <v>1.579292098568927e-05</v>
       </c>
       <c r="E74" t="n">
-        <v>3.857311275940646e-05</v>
+        <v>2.562081255888406e-05</v>
       </c>
       <c r="F74" t="n">
-        <v>4.733012374066915</v>
+        <v>4.833930452044954</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4493245684826964</v>
+        <v>0.4364820778113081</v>
       </c>
       <c r="H74" t="n">
-        <v>0.946602474813383</v>
+        <v>0.9667860904089908</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0009554904894363965</v>
+        <v>0.0003485103420738014</v>
       </c>
       <c r="C75" t="n">
-        <v>4.267286761898339e-05</v>
+        <v>1.12255735666188e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>2.359071926193453e-05</v>
+        <v>9.367697001683905e-06</v>
       </c>
       <c r="E75" t="n">
-        <v>3.817646422110455e-05</v>
+        <v>1.470379032928067e-05</v>
       </c>
       <c r="F75" t="n">
-        <v>3.647477519813707</v>
+        <v>2.529613446898051</v>
       </c>
       <c r="G75" t="n">
-        <v>0.6011991435915298</v>
+        <v>0.7720287727476125</v>
       </c>
       <c r="H75" t="n">
-        <v>0.7294955039627414</v>
+        <v>0.5059226893796103</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005142984083512548</v>
+        <v>0.0001840923791191634</v>
       </c>
       <c r="C76" t="n">
-        <v>2.404814605460936e-05</v>
+        <v>1.060913661839793e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>1.403354113768877e-05</v>
+        <v>4.91242630213111e-06</v>
       </c>
       <c r="E76" t="n">
-        <v>2.229245841677912e-05</v>
+        <v>7.877981803323089e-06</v>
       </c>
       <c r="F76" t="n">
-        <v>1.36263515672</v>
+        <v>6.207528437579924</v>
       </c>
       <c r="G76" t="n">
-        <v>0.928356533972495</v>
+        <v>0.2865461046284836</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725270313439999</v>
+        <v>1.241505687515985</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
-        <v>0.000271193717408372</v>
+        <v>9.195122646114368e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>2.346942730410668e-05</v>
+        <v>8.493032676857966e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>7.314580951097654e-06</v>
+        <v>2.840309425784612e-06</v>
       </c>
       <c r="E77" t="n">
-        <v>1.172146091379371e-05</v>
+        <v>4.493526165972134e-06</v>
       </c>
       <c r="F77" t="n">
-        <v>5.192874761338746</v>
+        <v>4.859392749977684</v>
       </c>
       <c r="G77" t="n">
-        <v>0.3927980228288045</v>
+        <v>0.4332801544295042</v>
       </c>
       <c r="H77" t="n">
-        <v>1.038574952267749</v>
+        <v>0.9718785499955368</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0001341078551210558</v>
+        <v>9.561374310933467e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>1.3702677949592e-05</v>
+        <v>-9.687094059040413e-06</v>
       </c>
       <c r="D78" t="n">
-        <v>4.238504315304995e-06</v>
+        <v>3.436403540584322e-06</v>
       </c>
       <c r="E78" t="n">
-        <v>6.720201532367658e-06</v>
+        <v>5.090151439101076e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>3.727807856575031</v>
+        <v>2.376878537104135</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5892312326652343</v>
+        <v>0.7949123119281494</v>
       </c>
       <c r="H78" t="n">
-        <v>0.7455615713150061</v>
+        <v>0.4753757074208271</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0001370381038928037</v>
+        <v>6.572936384372893e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>-9.230811664546356e-06</v>
+        <v>-9.974199905579635e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>5.066855662717218e-06</v>
+        <v>3.102874852731187e-06</v>
       </c>
       <c r="E79" t="n">
-        <v>7.583100320792821e-06</v>
+        <v>4.382802306760541e-06</v>
       </c>
       <c r="F79" t="n">
-        <v>4.404452271749579</v>
+        <v>18.09089282295291</v>
       </c>
       <c r="G79" t="n">
-        <v>0.4927682555516322</v>
+        <v>0.002834621464607979</v>
       </c>
       <c r="H79" t="n">
-        <v>0.8808904543499159</v>
+        <v>3.618178564590583</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
-        <v>8.662410850593235e-05</v>
+        <v>5.951471736734937e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>1.617793286424148e-06</v>
+        <v>-5.762747344120959e-07</v>
       </c>
       <c r="D80" t="n">
-        <v>4.328915892433836e-06</v>
+        <v>2.371623330861334e-06</v>
       </c>
       <c r="E80" t="n">
-        <v>6.35121087818748e-06</v>
+        <v>3.554805359625013e-06</v>
       </c>
       <c r="F80" t="n">
-        <v>22.02863242977318</v>
+        <v>7.492281099326587</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0005170766357478524</v>
+        <v>0.1865262369198762</v>
       </c>
       <c r="H80" t="n">
-        <v>4.405726485954635</v>
+        <v>1.498456219865318</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
-        <v>8.74296147579978e-05</v>
+        <v>3.860732017503461e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>-4.218562290044488e-06</v>
+        <v>5.467308286649833e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>3.606965134358211e-06</v>
+        <v>1.565785563214249e-06</v>
       </c>
       <c r="E81" t="n">
-        <v>5.424716905379044e-06</v>
+        <v>2.464637223559393e-06</v>
       </c>
       <c r="F81" t="n">
-        <v>9.386486472361581</v>
+        <v>4.101541952309646</v>
       </c>
       <c r="G81" t="n">
-        <v>0.09460651704741323</v>
+        <v>0.5348910498899927</v>
       </c>
       <c r="H81" t="n">
-        <v>1.877297294472316</v>
+        <v>0.8203083904619293</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
-        <v>5.300333286556533e-05</v>
+        <v>4.353080131843061e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>1.091999698713966e-05</v>
+        <v>1.414511438434853e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>2.266718554845457e-06</v>
+        <v>1.489346446979985e-06</v>
       </c>
       <c r="E82" t="n">
-        <v>3.673232111976433e-06</v>
+        <v>2.287387865902035e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>6.600573077959161</v>
+        <v>2.9469301733664</v>
       </c>
       <c r="G82" t="n">
-        <v>0.2520804953099675</v>
+        <v>0.7081675134429242</v>
       </c>
       <c r="H82" t="n">
-        <v>1.320114615591832</v>
+        <v>0.5893860346732799</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
-        <v>6.445031585818442e-05</v>
+        <v>9.383189785656604e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>2.880025707516105e-06</v>
+        <v>1.488241858879058e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>2.262699461601695e-06</v>
+        <v>2.509423756234807e-06</v>
       </c>
       <c r="E83" t="n">
-        <v>3.564936908241358e-06</v>
+        <v>3.951159067299719e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>5.382798025220923</v>
+        <v>4.942339625961162</v>
       </c>
       <c r="G83" t="n">
-        <v>0.3709686917319596</v>
+        <v>0.42295764120561</v>
       </c>
       <c r="H83" t="n">
-        <v>1.076559605044185</v>
+        <v>0.9884679251922325</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001387539593718091</v>
+        <v>6.287800547708218e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>1.905349227558645e-06</v>
+        <v>2.006432482851337e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>3.774587564732475e-06</v>
+        <v>1.601066021829793e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>6.018889818015373e-06</v>
+        <v>2.521834914913712e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>5.647362028958361</v>
+        <v>2.894007039130369</v>
       </c>
       <c r="G84" t="n">
-        <v>0.3420574838122456</v>
+        <v>0.716322675133543</v>
       </c>
       <c r="H84" t="n">
-        <v>1.129472405791672</v>
+        <v>0.5788014078260738</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
-        <v>9.226808889535007e-05</v>
+        <v>2.842028928182821e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>3.671851814908024e-06</v>
+        <v>2.059148194600107e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>2.384584714579917e-06</v>
+        <v>7.795821032062936e-07</v>
       </c>
       <c r="E85" t="n">
-        <v>3.798311252887377e-06</v>
+        <v>1.246901997484109e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>2.253296615734723</v>
+        <v>3.928335978555339</v>
       </c>
       <c r="G85" t="n">
-        <v>0.8131013070971134</v>
+        <v>0.5597793552240111</v>
       </c>
       <c r="H85" t="n">
-        <v>0.4506593231469447</v>
+        <v>0.7856671957110677</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
-        <v>4.259766246921226e-05</v>
+        <v>2.433864586934729e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>2.890699638625146e-06</v>
+        <v>-1.030755898602963e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>1.188455341503235e-06</v>
+        <v>6.681820999787473e-07</v>
       </c>
       <c r="E86" t="n">
-        <v>1.946983523115998e-06</v>
+        <v>1.01829830399449e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>5.547478961314431</v>
+        <v>4.533264642739471</v>
       </c>
       <c r="G86" t="n">
-        <v>0.3527677247660252</v>
+        <v>0.4754451179556032</v>
       </c>
       <c r="H86" t="n">
-        <v>1.109495792262886</v>
+        <v>0.9066529285478943</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
-        <v>3.578726834655917e-05</v>
+        <v>2.2676094476138e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>-6.947346739215831e-07</v>
+        <v>1.787958127524919e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>9.970341031329353e-07</v>
+        <v>5.636051298156627e-07</v>
       </c>
       <c r="E87" t="n">
-        <v>1.541239905940365e-06</v>
+        <v>9.314547192405125e-07</v>
       </c>
       <c r="F87" t="n">
-        <v>6.585170519173658</v>
+        <v>6.096216700463507</v>
       </c>
       <c r="G87" t="n">
-        <v>0.2533639184987895</v>
+        <v>0.2969689054551287</v>
       </c>
       <c r="H87" t="n">
-        <v>1.317034103834732</v>
+        <v>1.219243340092701</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
-        <v>3.358295696310546e-05</v>
+        <v>2.85918460748808e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>2.816544289214138e-06</v>
+        <v>2.565191716211564e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>8.432552902355533e-07</v>
+        <v>7.145915558295224e-07</v>
       </c>
       <c r="E88" t="n">
-        <v>1.398429083081141e-06</v>
+        <v>1.152621803513194e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>3.401700847991567</v>
+        <v>2.469492775947968</v>
       </c>
       <c r="G88" t="n">
-        <v>0.6383108929541721</v>
+        <v>0.7810823471284609</v>
       </c>
       <c r="H88" t="n">
-        <v>0.6803401695983133</v>
+        <v>0.4938985551895936</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
-        <v>4.243156371013412e-05</v>
+        <v>5.214959987888892e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>2.663406758061239e-06</v>
+        <v>1.447634573386251e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>1.081074355803172e-06</v>
+        <v>1.252233367368967e-06</v>
       </c>
       <c r="E89" t="n">
-        <v>1.761881789079835e-06</v>
+        <v>2.016226995954524e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>5.208424243073006</v>
+        <v>7.410422440409653</v>
       </c>
       <c r="G89" t="n">
-        <v>0.3909771300630723</v>
+        <v>0.1918617120521473</v>
       </c>
       <c r="H89" t="n">
-        <v>1.041684848614601</v>
+        <v>1.482084488081931</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
-        <v>7.728423742869987e-05</v>
+        <v>0.0001207699871548392</v>
       </c>
       <c r="C90" t="n">
-        <v>2.536030112317239e-06</v>
+        <v>5.950894982593186e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>1.870256869007596e-06</v>
+        <v>2.792615304885844e-06</v>
       </c>
       <c r="E90" t="n">
-        <v>3.01807033488653e-06</v>
+        <v>4.54545017522593e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>7.867202611232687</v>
+        <v>2.840412242687742</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1637078108420087</v>
+        <v>0.7245732553350382</v>
       </c>
       <c r="H90" t="n">
-        <v>1.573440522246538</v>
+        <v>0.5680824485375483</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001773274863424931</v>
+        <v>0.0001354981552985159</v>
       </c>
       <c r="C91" t="n">
-        <v>1.075099308152743e-05</v>
+        <v>1.433260917252727e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>4.130364806401259e-06</v>
+        <v>3.122053653030917e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>6.755751864367458e-06</v>
+        <v>4.997251674033839e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>2.897326828417406</v>
+        <v>1.808743391394226</v>
       </c>
       <c r="G91" t="n">
-        <v>0.715811304105169</v>
+        <v>0.8749251458261275</v>
       </c>
       <c r="H91" t="n">
-        <v>0.5794653656834812</v>
+        <v>0.3617486782788452</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001999400934178971</v>
+        <v>0.0001589383810023154</v>
       </c>
       <c r="C92" t="n">
-        <v>2.727494275776154e-06</v>
+        <v>9.145025374943691e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>4.645834291733768e-06</v>
+        <v>3.640769758193036e-06</v>
       </c>
       <c r="E92" t="n">
-        <v>7.471541770660179e-06</v>
+        <v>5.980459024155317e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>1.777981786125388</v>
+        <v>7.16212767334256</v>
       </c>
       <c r="G92" t="n">
-        <v>0.8789326148875902</v>
+        <v>0.2088592167906217</v>
       </c>
       <c r="H92" t="n">
-        <v>0.3555963572250776</v>
+        <v>1.432425534668512</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0002342755805977403</v>
+        <v>0.0001639826010181513</v>
       </c>
       <c r="C93" t="n">
-        <v>1.715683873567303e-05</v>
+        <v>9.440678686129477e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>5.38821651795933e-06</v>
+        <v>3.878599585438204e-06</v>
       </c>
       <c r="E93" t="n">
-        <v>8.854722316868023e-06</v>
+        <v>6.272422201077491e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>5.916085355371555</v>
+        <v>1.558230836788804</v>
       </c>
       <c r="G93" t="n">
-        <v>0.3144700198081486</v>
+        <v>0.9062537470880208</v>
       </c>
       <c r="H93" t="n">
-        <v>1.183217071074311</v>
+        <v>0.3116461673577607</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
-        <v>0.000242418105762104</v>
+        <v>0.0001454841582494727</v>
       </c>
       <c r="C94" t="n">
-        <v>1.197699075244438e-05</v>
+        <v>3.855740332124784e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>5.798725348277406e-06</v>
+        <v>3.993953914379935e-06</v>
       </c>
       <c r="E94" t="n">
-        <v>9.394297941657826e-06</v>
+        <v>6.228936566460681e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>1.178412019595304</v>
+        <v>1.794954557553764</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9469315975629855</v>
+        <v>0.8767266123122214</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2356824039190609</v>
+        <v>0.3589909115107527</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
-        <v>0.000215397372067455</v>
+        <v>0.0001292321378095957</v>
       </c>
       <c r="C95" t="n">
-        <v>6.786717253196288e-06</v>
+        <v>6.90933376371084e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>6.015791639704892e-06</v>
+        <v>3.554696203576434e-06</v>
       </c>
       <c r="E95" t="n">
-        <v>9.508522979200977e-06</v>
+        <v>5.671000124608267e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>1.48178469782452</v>
+        <v>3.188760148979886</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9151622349482925</v>
+        <v>0.6709106408660889</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2963569395649039</v>
+        <v>0.6377520297959773</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0001887893614373165</v>
+        <v>9.67957537123889e-05</v>
       </c>
       <c r="C96" t="n">
-        <v>1.060605487029071e-05</v>
+        <v>2.291786126344355e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>5.296767047656543e-06</v>
+        <v>2.628676441179363e-06</v>
       </c>
       <c r="E96" t="n">
-        <v>8.533126799802764e-06</v>
+        <v>4.142149667647764e-06</v>
       </c>
       <c r="F96" t="n">
-        <v>2.769977785788718</v>
+        <v>1.405185433517537</v>
       </c>
       <c r="G96" t="n">
-        <v>0.735396592973518</v>
+        <v>0.9237452027437282</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5539955571577436</v>
+        <v>0.2810370867035074</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0001430904053474773</v>
+        <v>8.840361635729555e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>4.255117332179555e-06</v>
+        <v>3.256624968163467e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>3.951743767563906e-06</v>
+        <v>2.325461246056264e-06</v>
       </c>
       <c r="E97" t="n">
-        <v>6.320682756632455e-06</v>
+        <v>3.689102266206267e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>1.883163814164054</v>
+        <v>2.141505882323854</v>
       </c>
       <c r="G97" t="n">
-        <v>0.8650638483707079</v>
+        <v>0.8292388101070469</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3766327628328107</v>
+        <v>0.4283011764647708</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0001318704571382614</v>
+        <v>8.329967232527869e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>5.314468406228488e-06</v>
+        <v>7.057449611575899e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>3.514018496817971e-06</v>
+        <v>2.015437727324552e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>5.599790075561392e-06</v>
+        <v>3.300909526127207e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>1.314160336880431</v>
+        <v>4.930509571223252</v>
       </c>
       <c r="G98" t="n">
-        <v>0.9334678673790048</v>
+        <v>0.4244196947792962</v>
       </c>
       <c r="H98" t="n">
-        <v>0.2628320673760863</v>
+        <v>0.9861019142446503</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001239043560752122</v>
+        <v>8.297148046202108e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>1.066270115252981e-05</v>
+        <v>3.38293555199601e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>3.020818208665136e-06</v>
+        <v>1.913325958586729e-06</v>
       </c>
       <c r="E99" t="n">
-        <v>4.942232503588061e-06</v>
+        <v>3.053776768020261e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>2.405655882270664</v>
+        <v>1.588625652835997</v>
       </c>
       <c r="G99" t="n">
-        <v>0.7906315513878661</v>
+        <v>0.9026214074685497</v>
       </c>
       <c r="H99" t="n">
-        <v>0.4811311764541328</v>
+        <v>0.3177251305671994</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0001216396448510296</v>
+        <v>8.181804930165916e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>6.111646833117067e-06</v>
+        <v>7.521235218833118e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>2.833837910156635e-06</v>
+        <v>1.818918950365188e-06</v>
       </c>
       <c r="E100" t="n">
-        <v>4.587665903468735e-06</v>
+        <v>3.039755116755413e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>1.18786576673649</v>
+        <v>5.427584542799194</v>
       </c>
       <c r="G100" t="n">
-        <v>0.9460361704015015</v>
+        <v>0.36595185154615</v>
       </c>
       <c r="H100" t="n">
-        <v>0.2375731533472979</v>
+        <v>1.085516908559839</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0001204046499446382</v>
+        <v>8.216215520840822e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1.392582994016553e-05</v>
+        <v>3.967267979192972e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>2.678149256392122e-06</v>
+        <v>1.772775411892971e-06</v>
       </c>
       <c r="E101" t="n">
-        <v>4.471700884517137e-06</v>
+        <v>2.908977795227097e-06</v>
       </c>
       <c r="F101" t="n">
-        <v>2.427683113747263</v>
+        <v>3.172177350761257</v>
       </c>
       <c r="G101" t="n">
-        <v>0.7873445538645193</v>
+        <v>0.6734607136637092</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4855366227494525</v>
+        <v>0.6344354701522514</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0001211498896109834</v>
+        <v>9.640153049033563e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>7.077821072431101e-06</v>
+        <v>5.596194161719477e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>2.618905147972212e-06</v>
+        <v>2.050872633701821e-06</v>
       </c>
       <c r="E102" t="n">
-        <v>4.316218209358389e-06</v>
+        <v>3.413693275363417e-06</v>
       </c>
       <c r="F102" t="n">
-        <v>2.594003746676775</v>
+        <v>4.453628482395423</v>
       </c>
       <c r="G102" t="n">
-        <v>0.7622761144529072</v>
+        <v>0.4861116591562002</v>
       </c>
       <c r="H102" t="n">
-        <v>0.518800749335355</v>
+        <v>0.8907256964790846</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0001430584345025226</v>
+        <v>0.0001292211475341312</v>
       </c>
       <c r="C103" t="n">
-        <v>8.972148375906974e-06</v>
+        <v>1.043360556998757e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>3.046618592564741e-06</v>
+        <v>2.72968404845481e-06</v>
       </c>
       <c r="E103" t="n">
-        <v>5.057183504144583e-06</v>
+        <v>4.586686310741533e-06</v>
       </c>
       <c r="F103" t="n">
-        <v>2.91001545936392</v>
+        <v>3.888604868378758</v>
       </c>
       <c r="G103" t="n">
-        <v>0.7138565144817335</v>
+        <v>0.5655631619027996</v>
       </c>
       <c r="H103" t="n">
-        <v>0.5820030918727841</v>
+        <v>0.7777209736757517</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0001901304710899793</v>
+        <v>0.0002118524861775227</v>
       </c>
       <c r="C104" t="n">
-        <v>1.86567912476874e-05</v>
+        <v>1.262100168477747e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>4.00487695403337e-06</v>
+        <v>4.412455291075505e-06</v>
       </c>
       <c r="E104" t="n">
-        <v>6.694668506136848e-06</v>
+        <v>7.381757840222714e-06</v>
       </c>
       <c r="F104" t="n">
-        <v>1.549805904461</v>
+        <v>4.135627132935745</v>
       </c>
       <c r="G104" t="n">
-        <v>0.9072516496407098</v>
+        <v>0.5300589528513658</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3099611808922</v>
+        <v>0.827125426587149</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0003113604688538661</v>
+        <v>0.0003234558367595674</v>
       </c>
       <c r="C105" t="n">
-        <v>2.409915246750287e-05</v>
+        <v>1.469041966661863e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>6.457999043825913e-06</v>
+        <v>6.808013889421713e-06</v>
       </c>
       <c r="E105" t="n">
-        <v>1.074835387781526e-05</v>
+        <v>1.123641666333489e-05</v>
       </c>
       <c r="F105" t="n">
-        <v>2.731739302029442</v>
+        <v>2.593673158354047</v>
       </c>
       <c r="G105" t="n">
-        <v>0.7412599363460268</v>
+        <v>0.7623263193224118</v>
       </c>
       <c r="H105" t="n">
-        <v>0.5463478604058883</v>
+        <v>0.5187346316708095</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0004756821691737393</v>
+        <v>0.0004277036849597809</v>
       </c>
       <c r="C106" t="n">
-        <v>2.941843393224693e-05</v>
+        <v>2.733476087122454e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>9.989194963548343e-06</v>
+        <v>8.913645902284561e-06</v>
       </c>
       <c r="E106" t="n">
-        <v>1.646929483852985e-05</v>
+        <v>1.48814986740074e-05</v>
       </c>
       <c r="F106" t="n">
-        <v>1.713965542733884</v>
+        <v>3.520391967436408</v>
       </c>
       <c r="G106" t="n">
-        <v>0.8871356626361735</v>
+        <v>0.6203043351670889</v>
       </c>
       <c r="H106" t="n">
-        <v>0.3427931085467767</v>
+        <v>0.7040783934872816</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0006296837947375867</v>
+        <v>0.0005690858907346963</v>
       </c>
       <c r="C107" t="n">
-        <v>4.994535259388467e-05</v>
+        <v>1.716512446235159e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>1.307956638503873e-05</v>
+        <v>1.19385274968428e-05</v>
       </c>
       <c r="E107" t="n">
-        <v>2.174026023639768e-05</v>
+        <v>1.960963579866036e-05</v>
       </c>
       <c r="F107" t="n">
-        <v>2.001207597914604</v>
+        <v>1.664822592476521</v>
       </c>
       <c r="G107" t="n">
-        <v>0.8489779165583822</v>
+        <v>0.8933013688912035</v>
       </c>
       <c r="H107" t="n">
-        <v>0.4002415195829209</v>
+        <v>0.3329645184953042</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0008381949504579553</v>
+        <v>0.0007100000392652016</v>
       </c>
       <c r="C108" t="n">
-        <v>3.525379224752795e-05</v>
+        <v>4.392344038729723e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>1.754761177105705e-05</v>
+        <v>1.46737027373152e-05</v>
       </c>
       <c r="E108" t="n">
-        <v>2.87346076956654e-05</v>
+        <v>2.456079968209195e-05</v>
       </c>
       <c r="F108" t="n">
-        <v>1.120671913726066</v>
+        <v>3.787923201867805</v>
       </c>
       <c r="G108" t="n">
-        <v>0.9522576368975384</v>
+        <v>0.5803357483753347</v>
       </c>
       <c r="H108" t="n">
-        <v>0.2241343827452131</v>
+        <v>0.7575846403735611</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
-        <v>0.001044705416722263</v>
+        <v>0.0007671105773540415</v>
       </c>
       <c r="C109" t="n">
-        <v>8.049050474269459e-05</v>
+        <v>6.149796576368971e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>2.150209870518834e-05</v>
+        <v>1.586893348502158e-05</v>
       </c>
       <c r="E109" t="n">
-        <v>3.580419068872759e-05</v>
+        <v>2.666079977455766e-05</v>
       </c>
       <c r="F109" t="n">
-        <v>2.367447978289454</v>
+        <v>2.698019971549086</v>
       </c>
       <c r="G109" t="n">
-        <v>0.7963116865514773</v>
+        <v>0.7464212573551277</v>
       </c>
       <c r="H109" t="n">
-        <v>0.4734895956578908</v>
+        <v>0.5396039943098171</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001129214124532197</v>
+        <v>0.000954855703540484</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0001061502126050196</v>
+        <v>6.611955567460454e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>2.328941661352214e-05</v>
+        <v>1.96753524586028e-05</v>
       </c>
       <c r="E110" t="n">
-        <v>3.898785233832799e-05</v>
+        <v>3.3029598737292e-05</v>
       </c>
       <c r="F110" t="n">
-        <v>1.177162993059617</v>
+        <v>3.445078067142901</v>
       </c>
       <c r="G110" t="n">
-        <v>0.9470494144571359</v>
+        <v>0.6317138216536069</v>
       </c>
       <c r="H110" t="n">
-        <v>0.2354325986119234</v>
+        <v>0.6890156134285801</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
-        <v>0.00140776954505154</v>
+        <v>0.001172254206314272</v>
       </c>
       <c r="C111" t="n">
-        <v>0.000118276491987573</v>
+        <v>5.140877662677371e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>2.887407719124466e-05</v>
+        <v>2.421954266432706e-05</v>
       </c>
       <c r="E111" t="n">
-        <v>4.813332853749819e-05</v>
+        <v>4.016656929153426e-05</v>
       </c>
       <c r="F111" t="n">
-        <v>1.544712902902498</v>
+        <v>2.749452673671263</v>
       </c>
       <c r="G111" t="n">
-        <v>0.9078529950712964</v>
+        <v>0.7385451003830662</v>
       </c>
       <c r="H111" t="n">
-        <v>0.3089425805804996</v>
+        <v>0.5498905347342526</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
-        <v>0.001726815779563234</v>
+        <v>0.001186175999740505</v>
       </c>
       <c r="C112" t="n">
-        <v>9.933543646804864e-05</v>
+        <v>6.018850776344465e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>3.553416142376935e-05</v>
+        <v>2.456424545962583e-05</v>
       </c>
       <c r="E112" t="n">
-        <v>5.861619356889823e-05</v>
+        <v>4.092234183128689e-05</v>
       </c>
       <c r="F112" t="n">
-        <v>1.698822862299378</v>
+        <v>3.73378775882771</v>
       </c>
       <c r="G112" t="n">
-        <v>0.8890480254242175</v>
+        <v>0.5883439684798117</v>
       </c>
       <c r="H112" t="n">
-        <v>0.3397645724598756</v>
+        <v>0.7467575517655419</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001748077727723693</v>
+        <v>0.001330862269176396</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0001109880703842796</v>
+        <v>3.815500707385453e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>3.6066465494429e-05</v>
+        <v>2.757247534662906e-05</v>
       </c>
       <c r="E113" t="n">
-        <v>5.972618336940781e-05</v>
+        <v>4.550965510107029e-05</v>
       </c>
       <c r="F113" t="n">
-        <v>2.538361261936187</v>
+        <v>2.694144763520274</v>
       </c>
       <c r="G113" t="n">
-        <v>0.7707070316516375</v>
+        <v>0.7470138232660795</v>
       </c>
       <c r="H113" t="n">
-        <v>0.5076722523872373</v>
+        <v>0.5388289527040548</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001961340138605762</v>
+        <v>0.001358884422925159</v>
       </c>
       <c r="C114" t="n">
-        <v>8.041405601422105e-05</v>
+        <v>4.575756489331702e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>4.04803680984715e-05</v>
+        <v>2.810916046214918e-05</v>
       </c>
       <c r="E114" t="n">
-        <v>6.647146316410999e-05</v>
+        <v>4.637667040206821e-05</v>
       </c>
       <c r="F114" t="n">
-        <v>1.979847924178648</v>
+        <v>2.278464126320559</v>
       </c>
       <c r="G114" t="n">
-        <v>0.8519263788513373</v>
+        <v>0.809424661083924</v>
       </c>
       <c r="H114" t="n">
-        <v>0.3959695848357295</v>
+        <v>0.4556928252641117</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
-        <v>0.002000077105851929</v>
+        <v>0.001351449079372242</v>
       </c>
       <c r="C115" t="n">
-        <v>9.544054324788572e-05</v>
+        <v>4.636109563077042e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>4.120713572422134e-05</v>
+        <v>2.799041919502756e-05</v>
       </c>
       <c r="E115" t="n">
-        <v>6.767015946562768e-05</v>
+        <v>4.63493348446936e-05</v>
       </c>
       <c r="F115" t="n">
-        <v>1.56859275052784</v>
+        <v>3.2201172449303</v>
       </c>
       <c r="G115" t="n">
-        <v>0.9050210751207961</v>
+        <v>0.6660921061245182</v>
       </c>
       <c r="H115" t="n">
-        <v>0.313718550105568</v>
+        <v>0.6440234489860599</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
-        <v>0.001989796401314622</v>
+        <v>0.001327881138998005</v>
       </c>
       <c r="C116" t="n">
-        <v>9.670979954967468e-05</v>
+        <v>5.186184231578098e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>4.10333728388833e-05</v>
+        <v>2.748352655468636e-05</v>
       </c>
       <c r="E116" t="n">
-        <v>6.753819541750947e-05</v>
+        <v>4.551317082238414e-05</v>
       </c>
       <c r="F116" t="n">
-        <v>2.340341891343352</v>
+        <v>3.024240985595022</v>
       </c>
       <c r="G116" t="n">
-        <v>0.800323965417133</v>
+        <v>0.6962484134853079</v>
       </c>
       <c r="H116" t="n">
-        <v>0.4680683782686704</v>
+        <v>0.6048481971190044</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001954506354823341</v>
+        <v>0.001333676158338903</v>
       </c>
       <c r="C117" t="n">
-        <v>0.0001048231815470909</v>
+        <v>5.737116460840456e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>4.027894719294465e-05</v>
+        <v>2.767781430285806e-05</v>
       </c>
       <c r="E117" t="n">
-        <v>6.629347328006696e-05</v>
+        <v>4.611075270173585e-05</v>
       </c>
       <c r="F117" t="n">
-        <v>2.06777100696719</v>
+        <v>4.663943536862215</v>
       </c>
       <c r="G117" t="n">
-        <v>0.8396904085065116</v>
+        <v>0.4582523216752973</v>
       </c>
       <c r="H117" t="n">
-        <v>0.4135542013934381</v>
+        <v>0.932788707372443</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001962472614056256</v>
+        <v>0.001264427532957934</v>
       </c>
       <c r="C118" t="n">
-        <v>0.0001091084650742414</v>
+        <v>5.239356724839341e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>4.059925236495198e-05</v>
+        <v>2.611932786560644e-05</v>
       </c>
       <c r="E118" t="n">
-        <v>6.740688790828765e-05</v>
+        <v>4.332141805662141e-05</v>
       </c>
       <c r="F118" t="n">
-        <v>3.879781834101042</v>
+        <v>2.920941475603534</v>
       </c>
       <c r="G118" t="n">
-        <v>0.5668511624484274</v>
+        <v>0.712172960973333</v>
       </c>
       <c r="H118" t="n">
-        <v>0.7759563668202084</v>
+        <v>0.5841882951207069</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001857813817391512</v>
+        <v>0.00123019590669632</v>
       </c>
       <c r="C119" t="n">
-        <v>0.0001084440459619483</v>
+        <v>4.220398576485743e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>3.820028153013677e-05</v>
+        <v>2.548276149341409e-05</v>
       </c>
       <c r="E119" t="n">
-        <v>6.308413115402705e-05</v>
+        <v>4.200985419520167e-05</v>
       </c>
       <c r="F119" t="n">
-        <v>2.09782613903233</v>
+        <v>2.272876285468811</v>
       </c>
       <c r="G119" t="n">
-        <v>0.8354500796856311</v>
+        <v>0.8102422616227083</v>
       </c>
       <c r="H119" t="n">
-        <v>0.419565227806466</v>
+        <v>0.4545752570937623</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
-        <v>0.00181070260378125</v>
+        <v>0.001012749084015163</v>
       </c>
       <c r="C120" t="n">
-        <v>8.616620036916499e-05</v>
+        <v>2.351286632926066e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>3.736546142753921e-05</v>
+        <v>2.101646759486815e-05</v>
       </c>
       <c r="E120" t="n">
-        <v>6.12809874733692e-05</v>
+        <v>3.451863528141703e-05</v>
       </c>
       <c r="F120" t="n">
-        <v>1.571175477603259</v>
+        <v>2.30339542163355</v>
       </c>
       <c r="G120" t="n">
-        <v>0.9047129176746467</v>
+        <v>0.8057680455992525</v>
       </c>
       <c r="H120" t="n">
-        <v>0.3142350955206518</v>
+        <v>0.4606790843267101</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
-        <v>0.001488874255697678</v>
+        <v>0.0009422679515061922</v>
       </c>
       <c r="C121" t="n">
-        <v>5.863258007854388e-05</v>
+        <v>4.836542485346759e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>3.076213869470098e-05</v>
+        <v>1.957144994927691e-05</v>
       </c>
       <c r="E121" t="n">
-        <v>5.030321112780396e-05</v>
+        <v>3.272647777355286e-05</v>
       </c>
       <c r="F121" t="n">
-        <v>1.814839025199419</v>
+        <v>5.244087732856406</v>
       </c>
       <c r="G121" t="n">
-        <v>0.874126150562492</v>
+        <v>0.3868234659134722</v>
       </c>
       <c r="H121" t="n">
-        <v>0.3629678050398837</v>
+        <v>1.048817546571281</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
-        <v>0.001388838449567492</v>
+        <v>0.0007908836935178625</v>
       </c>
       <c r="C122" t="n">
-        <v>8.93060304789432e-05</v>
+        <v>4.281960780920947e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>2.874803067011608e-05</v>
+        <v>1.634564196774073e-05</v>
       </c>
       <c r="E122" t="n">
-        <v>4.784449289252399e-05</v>
+        <v>2.724193105275227e-05</v>
       </c>
       <c r="F122" t="n">
-        <v>4.132381339528285</v>
+        <v>3.456336175857852</v>
       </c>
       <c r="G122" t="n">
-        <v>0.5305181280618932</v>
+        <v>0.6300045755853987</v>
       </c>
       <c r="H122" t="n">
-        <v>0.826476267905657</v>
+        <v>0.6912672351715704</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
-        <v>0.001164589779362371</v>
+        <v>0.0006139788579407552</v>
       </c>
       <c r="C123" t="n">
-        <v>8.227166201488201e-05</v>
+        <v>2.146718548432251e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>2.395410775907495e-05</v>
+        <v>1.270796510425735e-05</v>
       </c>
       <c r="E123" t="n">
-        <v>3.967255000148921e-05</v>
+        <v>2.091344785474838e-05</v>
       </c>
       <c r="F123" t="n">
-        <v>2.017907212632345</v>
+        <v>1.799873492506594</v>
       </c>
       <c r="G123" t="n">
-        <v>0.8466617250036788</v>
+        <v>0.8760849176463981</v>
       </c>
       <c r="H123" t="n">
-        <v>0.4035814425264689</v>
+        <v>0.3599746985013189</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0009039067684291867</v>
+        <v>0.0005625835153641634</v>
       </c>
       <c r="C124" t="n">
-        <v>4.287789645165204e-05</v>
+        <v>1.93166600611318e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>1.864554314391941e-05</v>
+        <v>1.17689390698541e-05</v>
       </c>
       <c r="E124" t="n">
-        <v>3.05559516057547e-05</v>
+        <v>1.9450269159433e-05</v>
       </c>
       <c r="F124" t="n">
-        <v>1.130097521939635</v>
+        <v>3.921968369483612</v>
       </c>
       <c r="G124" t="n">
-        <v>0.9514051754648511</v>
+        <v>0.5607045089996678</v>
       </c>
       <c r="H124" t="n">
-        <v>0.226019504387927</v>
+        <v>0.7843936738967224</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0008274543363037041</v>
+        <v>0.0004836488963082738</v>
       </c>
       <c r="C125" t="n">
-        <v>4.06032289467028e-05</v>
+        <v>2.952668092343172e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>1.72546163935634e-05</v>
+        <v>1.002843043579857e-05</v>
       </c>
       <c r="E125" t="n">
-        <v>2.840288419729274e-05</v>
+        <v>1.67510246399089e-05</v>
       </c>
       <c r="F125" t="n">
-        <v>3.188672063956608</v>
+        <v>3.492651056450382</v>
       </c>
       <c r="G125" t="n">
-        <v>0.6709241832076415</v>
+        <v>0.6244999073119993</v>
       </c>
       <c r="H125" t="n">
-        <v>0.6377344127913217</v>
+        <v>0.6985302112900764</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0007118905924619548</v>
+        <v>0.000459166023777435</v>
       </c>
       <c r="C126" t="n">
-        <v>5.611929283523087e-05</v>
+        <v>1.551053162482456e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>1.46919129635525e-05</v>
+        <v>9.595371205652905e-06</v>
       </c>
       <c r="E126" t="n">
-        <v>2.439383975426087e-05</v>
+        <v>1.572992790616691e-05</v>
       </c>
       <c r="F126" t="n">
-        <v>1.895437775586623</v>
+        <v>1.979013623402323</v>
       </c>
       <c r="G126" t="n">
-        <v>0.8634158079432812</v>
+        <v>0.8520412190672717</v>
       </c>
       <c r="H126" t="n">
-        <v>0.3790875551173245</v>
+        <v>0.3958027246804646</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
-        <v>0.000676754923138997</v>
+        <v>0.0004606810328444042</v>
       </c>
       <c r="C127" t="n">
-        <v>3.024835327066763e-05</v>
+        <v>1.323161641833158e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>1.411177045815766e-05</v>
+        <v>9.628481269456514e-06</v>
       </c>
       <c r="E127" t="n">
-        <v>2.304472315169551e-05</v>
+        <v>1.57796645079271e-05</v>
       </c>
       <c r="F127" t="n">
-        <v>1.30130560257778</v>
+        <v>1.887606277521923</v>
       </c>
       <c r="G127" t="n">
-        <v>0.9347972761751778</v>
+        <v>0.8644680401758561</v>
       </c>
       <c r="H127" t="n">
-        <v>0.2602611205155559</v>
+        <v>0.3775212555043846</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0006797566425005398</v>
+        <v>0.0004541791169512236</v>
       </c>
       <c r="C128" t="n">
-        <v>2.905103412803183e-05</v>
+        <v>1.679783634613718e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>1.416191012224441e-05</v>
+        <v>9.565295182077548e-06</v>
       </c>
       <c r="E128" t="n">
-        <v>2.310778481933745e-05</v>
+        <v>1.557635456706399e-05</v>
       </c>
       <c r="F128" t="n">
-        <v>1.131206902529063</v>
+        <v>2.98788698320335</v>
       </c>
       <c r="G128" t="n">
-        <v>0.9513044022972593</v>
+        <v>0.7018534171761466</v>
       </c>
       <c r="H128" t="n">
-        <v>0.2262413805058125</v>
+        <v>0.5975773966406701</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0006677200070200354</v>
+        <v>0.0004404234926457666</v>
       </c>
       <c r="C129" t="n">
-        <v>3.617026625995725e-05</v>
+        <v>1.370776634498184e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>1.401847250749409e-05</v>
+        <v>9.502839163835923e-06</v>
       </c>
       <c r="E129" t="n">
-        <v>2.272049256676791e-05</v>
+        <v>1.533636365849028e-05</v>
       </c>
       <c r="F129" t="n">
-        <v>2.533929772987436</v>
+        <v>2.40952826109446</v>
       </c>
       <c r="G129" t="n">
-        <v>0.771376735281641</v>
+        <v>0.7900543345882353</v>
       </c>
       <c r="H129" t="n">
-        <v>0.5067859545974873</v>
+        <v>0.4819056522188919</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0006498233873140474</v>
+        <v>0.0004456044884461266</v>
       </c>
       <c r="C130" t="n">
-        <v>2.452291180887034e-05</v>
+        <v>9.447374639819648e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>1.40416300982657e-05</v>
+        <v>9.711248104408927e-06</v>
       </c>
       <c r="E130" t="n">
-        <v>2.262730574106353e-05</v>
+        <v>1.570415992458551e-05</v>
       </c>
       <c r="F130" t="n">
-        <v>1.738888374166282</v>
+        <v>2.645035271970988</v>
       </c>
       <c r="G130" t="n">
-        <v>0.8839645218280766</v>
+        <v>0.7545113492237298</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3477776748332564</v>
+        <v>0.5290070543941976</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0006544801114619185</v>
+        <v>0.0004529323165655061</v>
       </c>
       <c r="C131" t="n">
-        <v>2.679966837294286e-05</v>
+        <v>1.086987476763235e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>1.425170152112691e-05</v>
+        <v>1.001690775284228e-05</v>
       </c>
       <c r="E131" t="n">
-        <v>2.299153845320085e-05</v>
+        <v>1.635398601546824e-05</v>
       </c>
       <c r="F131" t="n">
-        <v>2.006532709793037</v>
+        <v>4.815780675592472</v>
       </c>
       <c r="G131" t="n">
-        <v>0.8482403743526599</v>
+        <v>0.4387739074002394</v>
       </c>
       <c r="H131" t="n">
-        <v>0.4013065419586074</v>
+        <v>0.9631561351184944</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0006697941534559488</v>
+        <v>0.0005031824344002154</v>
       </c>
       <c r="C132" t="n">
-        <v>2.141740823686372e-05</v>
+        <v>1.760690148933406e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>1.486019675650107e-05</v>
+        <v>1.088874186074633e-05</v>
       </c>
       <c r="E132" t="n">
-        <v>2.428461833099335e-05</v>
+        <v>1.768391596507623e-05</v>
       </c>
       <c r="F132" t="n">
-        <v>4.078875071946039</v>
+        <v>1.476286822477402</v>
       </c>
       <c r="G132" t="n">
-        <v>0.5381167246352299</v>
+        <v>0.9157899794922268</v>
       </c>
       <c r="H132" t="n">
-        <v>0.8157750143892079</v>
+        <v>0.2952573644954803</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0007376500180148201</v>
+        <v>0.0005473771155996552</v>
       </c>
       <c r="C133" t="n">
-        <v>3.952592917364796e-05</v>
+        <v>2.764476492450032e-06</v>
       </c>
       <c r="D133" t="n">
-        <v>1.596449508180329e-05</v>
+        <v>1.184435831887906e-05</v>
       </c>
       <c r="E133" t="n">
-        <v>2.594167004018149e-05</v>
+        <v>1.894352947344872e-05</v>
       </c>
       <c r="F133" t="n">
-        <v>1.181433560337795</v>
+        <v>1.269331020289134</v>
       </c>
       <c r="G133" t="n">
-        <v>0.94664611433946</v>
+        <v>0.9380556269903378</v>
       </c>
       <c r="H133" t="n">
-        <v>0.2362867120675591</v>
+        <v>0.2538662040578267</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0008062216734970501</v>
+        <v>0.0005755297099739215</v>
       </c>
       <c r="C134" t="n">
-        <v>1.301822660749129e-05</v>
+        <v>2.269297893802021e-06</v>
       </c>
       <c r="D134" t="n">
-        <v>1.746308535991587e-05</v>
+        <v>1.245685988560728e-05</v>
       </c>
       <c r="E134" t="n">
-        <v>2.795170511989976e-05</v>
+        <v>1.990617829629677e-05</v>
       </c>
       <c r="F134" t="n">
-        <v>1.321972053780079</v>
+        <v>1.801391635459105</v>
       </c>
       <c r="G134" t="n">
-        <v>0.9326546133978431</v>
+        <v>0.8758866569072252</v>
       </c>
       <c r="H134" t="n">
-        <v>0.2643944107560157</v>
+        <v>0.3602783270918209</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0008447781746576477</v>
+        <v>0.0005825859397154281</v>
       </c>
       <c r="C135" t="n">
-        <v>1.643018868963521e-05</v>
+        <v>1.795808023043503e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>1.829274791890586e-05</v>
+        <v>1.267982384426002e-05</v>
       </c>
       <c r="E135" t="n">
-        <v>2.928329345165244e-05</v>
+        <v>2.057050706443069e-05</v>
       </c>
       <c r="F135" t="n">
-        <v>1.949240091711506</v>
+        <v>2.543167476320476</v>
       </c>
       <c r="G135" t="n">
-        <v>0.8561231308611874</v>
+        <v>0.769980393043695</v>
       </c>
       <c r="H135" t="n">
-        <v>0.3898480183423011</v>
+        <v>0.5086334952640953</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0008594899597745631</v>
+        <v>0.0005679445542916203</v>
       </c>
       <c r="C136" t="n">
-        <v>3.870394466082934e-05</v>
+        <v>1.033404704031476e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>1.871451401465762e-05</v>
+        <v>1.228387273073279e-05</v>
       </c>
       <c r="E136" t="n">
-        <v>3.035680720500791e-05</v>
+        <v>1.965847957156827e-05</v>
       </c>
       <c r="F136" t="n">
-        <v>1.754547115326852</v>
+        <v>2.254790481207851</v>
       </c>
       <c r="G136" t="n">
-        <v>0.8819573562270684</v>
+        <v>0.8128834937914566</v>
       </c>
       <c r="H136" t="n">
-        <v>0.3509094230653703</v>
+        <v>0.4509580962415702</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0008354653092506113</v>
+        <v>0.0005444429552038764</v>
       </c>
       <c r="C137" t="n">
-        <v>2.194926734960204e-05</v>
+        <v>2.660437626609066e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>1.810582901210944e-05</v>
+        <v>1.180261133939737e-05</v>
       </c>
       <c r="E137" t="n">
-        <v>2.897644746974049e-05</v>
+        <v>1.938291063595655e-05</v>
       </c>
       <c r="F137" t="n">
-        <v>2.229437769037398</v>
+        <v>2.668179350322331</v>
       </c>
       <c r="G137" t="n">
-        <v>0.8165726561993458</v>
+        <v>0.7509807958635228</v>
       </c>
       <c r="H137" t="n">
-        <v>0.4458875538074795</v>
+        <v>0.5336358700644661</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0007992791690293095</v>
+        <v>0.0004648879220136948</v>
       </c>
       <c r="C138" t="n">
-        <v>4.983203758620951e-05</v>
+        <v>1.183991509022515e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>1.735128946471615e-05</v>
+        <v>9.989943868242266e-06</v>
       </c>
       <c r="E138" t="n">
-        <v>2.852628292704836e-05</v>
+        <v>1.613560639599362e-05</v>
       </c>
       <c r="F138" t="n">
-        <v>2.010544587202951</v>
+        <v>2.345076889238686</v>
       </c>
       <c r="G138" t="n">
-        <v>0.8476840756617947</v>
+        <v>0.7996241665331437</v>
       </c>
       <c r="H138" t="n">
-        <v>0.4021089174405902</v>
+        <v>0.4690153778477372</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0006850731936036986</v>
+        <v>0.000291266773339438</v>
       </c>
       <c r="C139" t="n">
-        <v>2.378995992612077e-05</v>
+        <v>5.649103078847093e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>1.472749682078809e-05</v>
+        <v>6.26910576892593e-06</v>
       </c>
       <c r="E139" t="n">
-        <v>2.372513067514203e-05</v>
+        <v>1.010528402365466e-05</v>
       </c>
       <c r="F139" t="n">
-        <v>1.738045261230057</v>
+        <v>1.370080901385156</v>
       </c>
       <c r="G139" t="n">
-        <v>0.8840722727252348</v>
+        <v>0.9275579099010919</v>
       </c>
       <c r="H139" t="n">
-        <v>0.3476090522460114</v>
+        <v>0.2740161802770311</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0004285401459819486</v>
+        <v>0.0002468341544998704</v>
       </c>
       <c r="C140" t="n">
-        <v>1.290818057380234e-05</v>
+        <v>8.489982124830687e-06</v>
       </c>
       <c r="D140" t="n">
-        <v>9.230686129578324e-06</v>
+        <v>5.381971305474044e-06</v>
       </c>
       <c r="E140" t="n">
-        <v>1.48844536109804e-05</v>
+        <v>8.779585815454133e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9750978495947359</v>
+        <v>4.499947775725152</v>
       </c>
       <c r="G140" t="n">
-        <v>0.9645491922059362</v>
+        <v>0.4798904255728349</v>
       </c>
       <c r="H140" t="n">
-        <v>0.1950195699189472</v>
+        <v>0.8999895551450304</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0003625830682141057</v>
+        <v>0.0001965380567372892</v>
       </c>
       <c r="C141" t="n">
-        <v>1.592149187244405e-05</v>
+        <v>5.965034627417038e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>7.938489805511711e-06</v>
+        <v>4.208278524467714e-06</v>
       </c>
       <c r="E141" t="n">
-        <v>1.30505564974067e-05</v>
+        <v>6.82372738597274e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>3.652460318809437</v>
+        <v>2.069285642201731</v>
       </c>
       <c r="G141" t="n">
-        <v>0.6004542140430497</v>
+        <v>0.8394773917126486</v>
       </c>
       <c r="H141" t="n">
-        <v>0.7304920637618875</v>
+        <v>0.4138571284403462</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0002891308982115171</v>
+        <v>0.0001524858214171933</v>
       </c>
       <c r="C142" t="n">
-        <v>1.223126191562986e-05</v>
+        <v>1.028657395254264e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>6.18744071459939e-06</v>
+        <v>3.312635768995683e-06</v>
       </c>
       <c r="E142" t="n">
-        <v>9.985901364785943e-06</v>
+        <v>5.469805528189709e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>1.745052776367432</v>
+        <v>3.257036068374411</v>
       </c>
       <c r="G142" t="n">
-        <v>0.8831757041305812</v>
+        <v>0.6604255857386925</v>
       </c>
       <c r="H142" t="n">
-        <v>0.3490105552734863</v>
+        <v>0.6514072136748822</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0002238953253001104</v>
+        <v>0.0001435870635641344</v>
       </c>
       <c r="C143" t="n">
-        <v>1.979860042398727e-05</v>
+        <v>4.461672114672454e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>4.862374531614097e-06</v>
+        <v>3.18926998022241e-06</v>
       </c>
       <c r="E143" t="n">
-        <v>8.017821148542093e-06</v>
+        <v>5.185301858441015e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>1.666378075373909</v>
+        <v>3.326517300743486</v>
       </c>
       <c r="G143" t="n">
-        <v>0.8931080253286517</v>
+        <v>0.6497844073350189</v>
       </c>
       <c r="H143" t="n">
-        <v>0.3332756150747818</v>
+        <v>0.6653034601486972</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002134074746607994</v>
+        <v>0.0001396884878070247</v>
       </c>
       <c r="C144" t="n">
-        <v>5.499933164183657e-06</v>
+        <v>-1.585843624042103e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>4.773443288823763e-06</v>
+        <v>3.485478808701158e-06</v>
       </c>
       <c r="E144" t="n">
-        <v>7.789125065439788e-06</v>
+        <v>5.400314793660857e-06</v>
       </c>
       <c r="F144" t="n">
-        <v>4.440828545538201</v>
+        <v>3.114339006709901</v>
       </c>
       <c r="G144" t="n">
-        <v>0.487839195761987</v>
+        <v>0.6823632907433583</v>
       </c>
       <c r="H144" t="n">
-        <v>0.8881657091076403</v>
+        <v>0.6228678013419803</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0002039761844673985</v>
+        <v>0.000143980429182417</v>
       </c>
       <c r="C145" t="n">
-        <v>1.109641472013886e-06</v>
+        <v>7.46586770266975e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>5.156533403384652e-06</v>
+        <v>3.448482493239945e-06</v>
       </c>
       <c r="E145" t="n">
-        <v>8.112835324155826e-06</v>
+        <v>5.555395505665328e-06</v>
       </c>
       <c r="F145" t="n">
-        <v>2.090030594992137</v>
+        <v>1.281778765229707</v>
       </c>
       <c r="G145" t="n">
-        <v>0.8365526007070574</v>
+        <v>0.9367954147546282</v>
       </c>
       <c r="H145" t="n">
-        <v>0.4180061189984274</v>
+        <v>0.2563557530459414</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0002135891960690226</v>
+        <v>0.0001381018561308602</v>
       </c>
       <c r="C146" t="n">
-        <v>1.067579402654851e-05</v>
+        <v>6.13706237427515e-06</v>
       </c>
       <c r="D146" t="n">
-        <v>5.171999038029796e-06</v>
+        <v>3.536262268116318e-06</v>
       </c>
       <c r="E146" t="n">
-        <v>8.373904933725879e-06</v>
+        <v>5.696540619559856e-06</v>
       </c>
       <c r="F146" t="n">
-        <v>0.2764373491779683</v>
+        <v>5.05208077579494</v>
       </c>
       <c r="G146" t="n">
-        <v>0.9980628947162592</v>
+        <v>0.409557328050092</v>
       </c>
       <c r="H146" t="n">
-        <v>0.05528746983559365</v>
+        <v>1.010416155158988</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
-        <v>0.000203650438093925</v>
+        <v>0.0001371237620479568</v>
       </c>
       <c r="C147" t="n">
-        <v>1.28101790198049e-05</v>
+        <v>1.847134133776375e-05</v>
       </c>
       <c r="D147" t="n">
-        <v>5.28045378331564e-06</v>
+        <v>3.593377696568585e-06</v>
       </c>
       <c r="E147" t="n">
-        <v>8.633735492918664e-06</v>
+        <v>5.906161220223538e-06</v>
       </c>
       <c r="F147" t="n">
-        <v>4.445763455300434</v>
+        <v>5.945642381043129</v>
       </c>
       <c r="G147" t="n">
-        <v>0.4871727322054574</v>
+        <v>0.3115441429829844</v>
       </c>
       <c r="H147" t="n">
-        <v>0.8891526910600869</v>
+        <v>1.189128476208626</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0002014717635038607</v>
+        <v>0.0001376331049188781</v>
       </c>
       <c r="C148" t="n">
-        <v>3.063857600558263e-05</v>
+        <v>4.320300886898566e-06</v>
       </c>
       <c r="D148" t="n">
-        <v>5.347963572276919e-06</v>
+        <v>3.628729436454758e-06</v>
       </c>
       <c r="E148" t="n">
-        <v>8.85232830740869e-06</v>
+        <v>5.761576519054392e-06</v>
       </c>
       <c r="F148" t="n">
-        <v>1.936666125892587</v>
+        <v>2.519000838414653</v>
       </c>
       <c r="G148" t="n">
-        <v>0.8578372726149284</v>
+        <v>0.7736308278703803</v>
       </c>
       <c r="H148" t="n">
-        <v>0.3873332251785174</v>
+        <v>0.5038001676829307</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0002022382027491249</v>
+        <v>0.0001377566667437495</v>
       </c>
       <c r="C149" t="n">
-        <v>1.082595545285407e-05</v>
+        <v>4.730684009995349e-06</v>
       </c>
       <c r="D149" t="n">
-        <v>5.40130163326244e-06</v>
+        <v>3.62069771671476e-06</v>
       </c>
       <c r="E149" t="n">
-        <v>8.674614996515109e-06</v>
+        <v>5.804682882790247e-06</v>
       </c>
       <c r="F149" t="n">
-        <v>2.118715447916603</v>
+        <v>4.1416508483131</v>
       </c>
       <c r="G149" t="n">
-        <v>0.8324866476337145</v>
+        <v>0.5292073335644552</v>
       </c>
       <c r="H149" t="n">
-        <v>0.4237430895833206</v>
+        <v>0.82833016966262</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0001998499315915187</v>
+        <v>0.0001338615821179786</v>
       </c>
       <c r="C150" t="n">
-        <v>1.275443808529828e-05</v>
+        <v>-2.111221374396361e-07</v>
       </c>
       <c r="D150" t="n">
-        <v>5.336064864185506e-06</v>
+        <v>3.556116612336552e-06</v>
       </c>
       <c r="E150" t="n">
-        <v>8.674889893961875e-06</v>
+        <v>5.517176190778264e-06</v>
       </c>
       <c r="F150" t="n">
-        <v>3.674206930182146</v>
+        <v>1.933951762751756</v>
       </c>
       <c r="G150" t="n">
-        <v>0.597206996106572</v>
+        <v>0.8582065350889286</v>
       </c>
       <c r="H150" t="n">
-        <v>0.7348413860364292</v>
+        <v>0.3867903525503512</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0001980726110162964</v>
+        <v>0.0001318239688692179</v>
       </c>
       <c r="C151" t="n">
-        <v>3.447188356251477e-06</v>
+        <v>9.187213115280826e-06</v>
       </c>
       <c r="D151" t="n">
-        <v>5.32785291474736e-06</v>
+        <v>3.432025061761546e-06</v>
       </c>
       <c r="E151" t="n">
-        <v>8.366880666408302e-06</v>
+        <v>5.499987752077075e-06</v>
       </c>
       <c r="F151" t="n">
-        <v>1.450260832065785</v>
+        <v>7.988901658593393</v>
       </c>
       <c r="G151" t="n">
-        <v>0.918737340964574</v>
+        <v>0.1568483405422016</v>
       </c>
       <c r="H151" t="n">
-        <v>0.2900521664131569</v>
+        <v>1.597780331718679</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0001928970106087032</v>
+        <v>0.0001316260271248417</v>
       </c>
       <c r="C152" t="n">
-        <v>1.529143370698855e-05</v>
+        <v>-1.537168687812995e-06</v>
       </c>
       <c r="D152" t="n">
-        <v>5.116222754369862e-06</v>
+        <v>3.519436019132457e-06</v>
       </c>
       <c r="E152" t="n">
-        <v>8.344929932908166e-06</v>
+        <v>5.442018228085841e-06</v>
       </c>
       <c r="F152" t="n">
-        <v>8.100634566356147</v>
+        <v>2.670895896341156</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1507759739796112</v>
+        <v>0.7505660546544163</v>
       </c>
       <c r="H152" t="n">
-        <v>1.620126913271229</v>
+        <v>0.5341791792682312</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
-        <v>0.000191714776128698</v>
+        <v>0.0001200402465573764</v>
       </c>
       <c r="C153" t="n">
-        <v>-2.226259469814479e-07</v>
+        <v>1.484580485763922e-05</v>
       </c>
       <c r="D153" t="n">
-        <v>5.232080496385013e-06</v>
+        <v>3.179817211616889e-06</v>
       </c>
       <c r="E153" t="n">
-        <v>8.247695591180434e-06</v>
+        <v>5.241905244398627e-06</v>
       </c>
       <c r="F153" t="n">
-        <v>1.087249889670143</v>
+        <v>7.279746439608443</v>
       </c>
       <c r="G153" t="n">
-        <v>0.9552260207568178</v>
+        <v>0.2006526143948535</v>
       </c>
       <c r="H153" t="n">
-        <v>0.2174499779340286</v>
+        <v>1.455949287921689</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0001775789509849329</v>
+        <v>0.0001214443759489481</v>
       </c>
       <c r="C154" t="n">
-        <v>2.534739153300697e-05</v>
+        <v>4.990670746518228e-06</v>
       </c>
       <c r="D154" t="n">
-        <v>4.761007761386738e-06</v>
+        <v>3.298260741982466e-06</v>
       </c>
       <c r="E154" t="n">
-        <v>7.889470868756289e-06</v>
+        <v>5.257250512149386e-06</v>
       </c>
       <c r="F154" t="n">
-        <v>4.235034984465537</v>
+        <v>9.574166851010654</v>
       </c>
       <c r="G154" t="n">
-        <v>0.516096574463639</v>
+        <v>0.08824032597240264</v>
       </c>
       <c r="H154" t="n">
-        <v>0.8470069968931074</v>
+        <v>1.914833370202131</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
-        <v>0.000179808263364393</v>
+        <v>0.0001217692262174442</v>
       </c>
       <c r="C155" t="n">
-        <v>7.088972966499832e-06</v>
+        <v>-2.85876290244981e-06</v>
       </c>
       <c r="D155" t="n">
-        <v>4.976789273406911e-06</v>
+        <v>3.32371329193433e-06</v>
       </c>
       <c r="E155" t="n">
-        <v>8.053077800886392e-06</v>
+        <v>5.149450295296655e-06</v>
       </c>
       <c r="F155" t="n">
-        <v>8.55382106831231</v>
+        <v>4.116384085703163</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1282397287520996</v>
+        <v>0.5327842017837401</v>
       </c>
       <c r="H155" t="n">
-        <v>1.710764213662462</v>
+        <v>0.8232768171406326</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0001795424408455295</v>
+        <v>0.0001212017005152993</v>
       </c>
       <c r="C156" t="n">
-        <v>-1.610403888053949e-06</v>
+        <v>-3.649811745291744e-06</v>
       </c>
       <c r="D156" t="n">
-        <v>4.972515224032857e-06</v>
+        <v>3.231240650533932e-06</v>
       </c>
       <c r="E156" t="n">
-        <v>7.726341484217028e-06</v>
+        <v>4.998979222603522e-06</v>
       </c>
       <c r="F156" t="n">
-        <v>6.881892886026336</v>
+        <v>2.548532787319276</v>
       </c>
       <c r="G156" t="n">
-        <v>0.2295733220925144</v>
+        <v>0.7691688556894614</v>
       </c>
       <c r="H156" t="n">
-        <v>1.376378577205267</v>
+        <v>0.5097065574638552</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0001794674718512829</v>
+        <v>0.0001078236219349305</v>
       </c>
       <c r="C157" t="n">
-        <v>-5.104412673562691e-06</v>
+        <v>7.376769406275364e-06</v>
       </c>
       <c r="D157" t="n">
-        <v>4.856669740066614e-06</v>
+        <v>2.755425023643969e-06</v>
       </c>
       <c r="E157" t="n">
-        <v>7.570665964119177e-06</v>
+        <v>4.469390303702538e-06</v>
       </c>
       <c r="F157" t="n">
-        <v>3.443808077276823</v>
+        <v>6.989172425920522</v>
       </c>
       <c r="G157" t="n">
-        <v>0.6319067145660096</v>
+        <v>0.2214468147234281</v>
       </c>
       <c r="H157" t="n">
-        <v>0.6887616154553646</v>
+        <v>1.397834485184104</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0001593199994142177</v>
+        <v>9.363952625848905e-05</v>
       </c>
       <c r="C158" t="n">
-        <v>1.138071755935247e-05</v>
+        <v>1.2077637684023e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>4.128005327840864e-06</v>
+        <v>2.577192697207588e-06</v>
       </c>
       <c r="E158" t="n">
-        <v>6.743189355007664e-06</v>
+        <v>4.061723829566492e-06</v>
       </c>
       <c r="F158" t="n">
-        <v>6.297406330304981</v>
+        <v>7.709022741965194</v>
       </c>
       <c r="G158" t="n">
-        <v>0.2783460436320617</v>
+        <v>0.1730178769853695</v>
       </c>
       <c r="H158" t="n">
-        <v>1.259481266060996</v>
+        <v>1.541804548393039</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0001382228094777924</v>
+        <v>8.796984676257676e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>5.645014349194336e-06</v>
+        <v>8.811885117311619e-07</v>
       </c>
       <c r="D159" t="n">
-        <v>3.844982077292121e-06</v>
+        <v>2.252634364549122e-06</v>
       </c>
       <c r="E159" t="n">
-        <v>6.082881774780165e-06</v>
+        <v>3.519302676743285e-06</v>
       </c>
       <c r="F159" t="n">
-        <v>6.221462507339337</v>
+        <v>1.357203170479335</v>
       </c>
       <c r="G159" t="n">
-        <v>0.2852622520482037</v>
+        <v>0.9289369162999238</v>
       </c>
       <c r="H159" t="n">
-        <v>1.244292501467867</v>
+        <v>0.271440634095867</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0001279296369498221</v>
+        <v>8.656839373004628e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>4.429256892056314e-06</v>
+        <v>6.36261469393716e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>3.321767324777411e-06</v>
+        <v>2.363243297232996e-06</v>
       </c>
       <c r="E160" t="n">
-        <v>5.237870132941977e-06</v>
+        <v>3.78346692610224e-06</v>
       </c>
       <c r="F160" t="n">
-        <v>2.743630080365819</v>
+        <v>2.028085409940926</v>
       </c>
       <c r="G160" t="n">
-        <v>0.7394377488924828</v>
+        <v>0.8452453975685321</v>
       </c>
       <c r="H160" t="n">
-        <v>0.5487260160731638</v>
+        <v>0.4056170819881852</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001265259510069737</v>
+        <v>0.0001060858779515832</v>
       </c>
       <c r="C161" t="n">
-        <v>1.025501549336091e-05</v>
+        <v>1.248239529834795e-08</v>
       </c>
       <c r="D161" t="n">
-        <v>3.525961838636025e-06</v>
+        <v>2.615813655970105e-06</v>
       </c>
       <c r="E161" t="n">
-        <v>5.716834505254225e-06</v>
+        <v>4.080395298318196e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>1.891089457886306</v>
+        <v>2.136845019496613</v>
       </c>
       <c r="G161" t="n">
-        <v>0.8640003417412451</v>
+        <v>0.8299042496145341</v>
       </c>
       <c r="H161" t="n">
-        <v>0.3782178915772611</v>
+        <v>0.4273690038993226</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001573388382498121</v>
+        <v>0.0001857554815625494</v>
       </c>
       <c r="C162" t="n">
-        <v>8.348372106135112e-07</v>
+        <v>3.129350717608536e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>3.921405670138234e-06</v>
+        <v>4.341249792070772e-06</v>
       </c>
       <c r="E162" t="n">
-        <v>6.150454720949648e-06</v>
+        <v>6.948751095570367e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>2.783875378694806</v>
+        <v>5.607003356137515</v>
       </c>
       <c r="G162" t="n">
-        <v>0.7332631925648728</v>
+        <v>0.346355175179437</v>
       </c>
       <c r="H162" t="n">
-        <v>0.5567750757389611</v>
+        <v>1.121400671227503</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002725554760999381</v>
+        <v>0.0002271295250539216</v>
       </c>
       <c r="C163" t="n">
-        <v>1.215547672771324e-05</v>
+        <v>4.844548976899092e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>6.380125061265598e-06</v>
+        <v>5.120016037141392e-06</v>
       </c>
       <c r="E163" t="n">
-        <v>1.015217681856318e-05</v>
+        <v>8.190139678553799e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>5.209930140996499</v>
+        <v>0.8903274153524758</v>
       </c>
       <c r="G163" t="n">
-        <v>0.3908011029421413</v>
+        <v>0.9709179472218379</v>
       </c>
       <c r="H163" t="n">
-        <v>1.0419860281993</v>
+        <v>0.1780654830704952</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0003338425665306906</v>
+        <v>0.0002423850363386799</v>
       </c>
       <c r="C164" t="n">
-        <v>9.737422756686271e-06</v>
+        <v>8.722294383362104e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>7.57376262981237e-06</v>
+        <v>5.423524612839271e-06</v>
       </c>
       <c r="E164" t="n">
-        <v>1.218747896147323e-05</v>
+        <v>8.777749270024976e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>0.6889987636586125</v>
+        <v>1.13605043609839</v>
       </c>
       <c r="G164" t="n">
-        <v>0.9835669885464904</v>
+        <v>0.9508633472356461</v>
       </c>
       <c r="H164" t="n">
-        <v>0.1377997527317225</v>
+        <v>0.2272100872196781</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0003555142441042658</v>
+        <v>0.0002472489228129682</v>
       </c>
       <c r="C165" t="n">
-        <v>1.838375054689993e-05</v>
+        <v>3.480927340781327e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>7.98389894729397e-06</v>
+        <v>5.570117029559905e-06</v>
       </c>
       <c r="E165" t="n">
-        <v>1.297884455323702e-05</v>
+        <v>8.902830251969489e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>0.7252520783516561</v>
+        <v>0.8198876808423821</v>
       </c>
       <c r="G165" t="n">
-        <v>0.9815540892702816</v>
+        <v>0.9757475392011766</v>
       </c>
       <c r="H165" t="n">
-        <v>0.1450504156703312</v>
+        <v>0.1639775361684764</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0003610964890050489</v>
+        <v>0.0002532271695083308</v>
       </c>
       <c r="C166" t="n">
-        <v>1.223978241177869e-05</v>
+        <v>1.652001366886602e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>8.175479620395407e-06</v>
+        <v>5.781970387953346e-06</v>
       </c>
       <c r="E166" t="n">
-        <v>1.317689984471993e-05</v>
+        <v>9.473206351034642e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>0.8791704863772803</v>
+        <v>4.277635851035408</v>
       </c>
       <c r="G166" t="n">
-        <v>0.9717112549275457</v>
+        <v>0.5101740411052322</v>
       </c>
       <c r="H166" t="n">
-        <v>0.1758340972754561</v>
+        <v>0.8555271702070817</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0003720852724189631</v>
+        <v>0.0002542563006911356</v>
       </c>
       <c r="C167" t="n">
-        <v>3.236205846210682e-05</v>
+        <v>6.041944370707101e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>8.542848796091437e-06</v>
+        <v>5.610974780307423e-06</v>
       </c>
       <c r="E167" t="n">
-        <v>1.414132098016991e-05</v>
+        <v>9.061581648109787e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>3.266992810456614</v>
+        <v>1.180933515245829</v>
       </c>
       <c r="G167" t="n">
-        <v>0.6588987328266463</v>
+        <v>0.9466934058634875</v>
       </c>
       <c r="H167" t="n">
-        <v>0.6533985620913227</v>
+        <v>0.2361867030491658</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0003762851453683725</v>
+        <v>0.0002456886276199866</v>
       </c>
       <c r="C168" t="n">
-        <v>1.248851180199467e-05</v>
+        <v>7.997977013574466e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>8.324687231777326e-06</v>
+        <v>5.378839434332204e-06</v>
       </c>
       <c r="E168" t="n">
-        <v>1.345677583497523e-05</v>
+        <v>8.710569902379579e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>0.7014819461589393</v>
+        <v>1.499359325833832</v>
       </c>
       <c r="G168" t="n">
-        <v>0.9828872434843493</v>
+        <v>0.9131437363339943</v>
       </c>
       <c r="H168" t="n">
-        <v>0.1402963892317879</v>
+        <v>0.2998718651667664</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0003619355423354181</v>
+        <v>0.000225928496035768</v>
       </c>
       <c r="C169" t="n">
-        <v>1.522593671247506e-05</v>
+        <v>1.207044524403016e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>7.948372307639775e-06</v>
+        <v>4.895890867481981e-06</v>
       </c>
       <c r="E169" t="n">
-        <v>1.291221198029755e-05</v>
+        <v>8.032673148676245e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>1.153920792106417</v>
+        <v>2.950669582085645</v>
       </c>
       <c r="G169" t="n">
-        <v>0.9492209100322277</v>
+        <v>0.7075910976171669</v>
       </c>
       <c r="H169" t="n">
-        <v>0.2307841584212835</v>
+        <v>0.590133916417129</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0003327956959332031</v>
+        <v>0.0001426589665982318</v>
       </c>
       <c r="C170" t="n">
-        <v>2.264191741098439e-05</v>
+        <v>6.017210663846617e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>7.213274415219794e-06</v>
+        <v>3.26751956271904e-06</v>
       </c>
       <c r="E170" t="n">
-        <v>1.180822027151021e-05</v>
+        <v>5.340736169119343e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>1.586770812600456</v>
+        <v>7.959757297875281</v>
       </c>
       <c r="G170" t="n">
-        <v>0.9028444989286266</v>
+        <v>0.1584674719452655</v>
       </c>
       <c r="H170" t="n">
-        <v>0.3173541625200912</v>
+        <v>1.591951459575056</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0002102958401170678</v>
+        <v>9.319108574471289e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>1.094823318840792e-05</v>
+        <v>4.631161633057297e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>4.845740570555723e-06</v>
+        <v>2.084643230515759e-06</v>
       </c>
       <c r="E171" t="n">
-        <v>7.944120646496549e-06</v>
+        <v>3.444360502853435e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>7.228780030651491</v>
+        <v>8.369230973043287</v>
       </c>
       <c r="G171" t="n">
-        <v>0.2041740703998877</v>
+        <v>0.1370264027260314</v>
       </c>
       <c r="H171" t="n">
-        <v>1.445756006130298</v>
+        <v>1.673846194608657</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001374730958884659</v>
+        <v>8.489039580389198e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>8.693780230403621e-06</v>
+        <v>5.135360569864511e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>3.087711216997571e-06</v>
+        <v>1.947015215600873e-06</v>
       </c>
       <c r="E172" t="n">
-        <v>5.125885617507362e-06</v>
+        <v>3.202103387347169e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>7.54302020503347</v>
+        <v>6.391284409084045</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1832841795073271</v>
+        <v>0.2699845998932568</v>
       </c>
       <c r="H172" t="n">
-        <v>1.508604041006694</v>
+        <v>1.278256881816809</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001256441630968421</v>
+        <v>9.835579787925823e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>8.143943782039831e-06</v>
+        <v>7.756765310838626e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>2.898358452017632e-06</v>
+        <v>2.391943552506806e-06</v>
       </c>
       <c r="E173" t="n">
-        <v>4.754007439288357e-06</v>
+        <v>3.918248945680761e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>3.029080413733423</v>
+        <v>3.246144119980389</v>
       </c>
       <c r="G173" t="n">
-        <v>0.6955023129128575</v>
+        <v>0.6620965376630755</v>
       </c>
       <c r="H173" t="n">
-        <v>0.6058160827466845</v>
+        <v>0.6492288239960777</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001453944835069365</v>
+        <v>0.0001370853313771415</v>
       </c>
       <c r="C174" t="n">
-        <v>1.365555167678794e-05</v>
+        <v>4.908209173645176e-06</v>
       </c>
       <c r="D174" t="n">
-        <v>3.566234605648331e-06</v>
+        <v>3.077557691171997e-06</v>
       </c>
       <c r="E174" t="n">
-        <v>5.879668813170403e-06</v>
+        <v>4.967469458389448e-06</v>
       </c>
       <c r="F174" t="n">
-        <v>1.04347990309013</v>
+        <v>2.929668786007444</v>
       </c>
       <c r="G174" t="n">
-        <v>0.9589831359923651</v>
+        <v>0.7108280181751323</v>
       </c>
       <c r="H174" t="n">
-        <v>0.208695980618026</v>
+        <v>0.5859337572014889</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002015843789671577</v>
+        <v>0.0001536264649185891</v>
       </c>
       <c r="C175" t="n">
-        <v>1.058048502064536e-05</v>
+        <v>5.242745248995871e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>4.535161684460019e-06</v>
+        <v>3.682629534218835e-06</v>
       </c>
       <c r="E175" t="n">
-        <v>7.308637368979016e-06</v>
+        <v>5.91569768197081e-06</v>
       </c>
       <c r="F175" t="n">
-        <v>2.214435416428831</v>
+        <v>4.202339146970147</v>
       </c>
       <c r="G175" t="n">
-        <v>0.8187481465362036</v>
+        <v>0.5206671381083054</v>
       </c>
       <c r="H175" t="n">
-        <v>0.4428870832857662</v>
+        <v>0.8404678293940295</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0002257530733391731</v>
+        <v>0.0002327602872135754</v>
       </c>
       <c r="C176" t="n">
-        <v>8.238484779117278e-06</v>
+        <v>7.97764905584227e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>5.480321837887563e-06</v>
+        <v>5.604630996009792e-06</v>
       </c>
       <c r="E176" t="n">
-        <v>8.909371807734146e-06</v>
+        <v>8.94806928287183e-06</v>
       </c>
       <c r="F176" t="n">
-        <v>4.792561106486474</v>
+        <v>1.67741421507795</v>
       </c>
       <c r="G176" t="n">
-        <v>0.4417173657459317</v>
+        <v>0.8917328075597467</v>
       </c>
       <c r="H176" t="n">
-        <v>0.9585122212972947</v>
+        <v>0.3354828430155901</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003415458532550308</v>
+        <v>0.00031330384407329</v>
       </c>
       <c r="C177" t="n">
-        <v>1.439846037052707e-05</v>
+        <v>2.749791127978844e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>8.323978443075987e-06</v>
+        <v>7.313961680394393e-06</v>
       </c>
       <c r="E177" t="n">
-        <v>1.343220173563308e-05</v>
+        <v>1.215587282232538e-05</v>
       </c>
       <c r="F177" t="n">
-        <v>1.927780735026729</v>
+        <v>10.49312462260454</v>
       </c>
       <c r="G177" t="n">
-        <v>0.859045013900729</v>
+        <v>0.0624093674074301</v>
       </c>
       <c r="H177" t="n">
-        <v>0.3855561470053458</v>
+        <v>2.098624924520908</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004593214458974838</v>
+        <v>0.0003231805160028283</v>
       </c>
       <c r="C178" t="n">
-        <v>6.029516756712367e-05</v>
+        <v>-5.433538457890797e-07</v>
       </c>
       <c r="D178" t="n">
-        <v>1.073080946040655e-05</v>
+        <v>7.931909381221036e-06</v>
       </c>
       <c r="E178" t="n">
-        <v>1.790002521708112e-05</v>
+        <v>1.24664278839925e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>7.570782490077895</v>
+        <v>2.130570379697544</v>
       </c>
       <c r="G178" t="n">
-        <v>0.18153110540988</v>
+        <v>0.8307991012830048</v>
       </c>
       <c r="H178" t="n">
-        <v>1.514156498015579</v>
+        <v>0.4261140759395087</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004796621542911472</v>
+        <v>0.0003123368361775996</v>
       </c>
       <c r="C179" t="n">
-        <v>2.914069725777255e-06</v>
+        <v>1.382927366102969e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>1.189009265861368e-05</v>
+        <v>7.695100824735693e-06</v>
       </c>
       <c r="E179" t="n">
-        <v>1.885073970636647e-05</v>
+        <v>1.234118029667842e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>2.262850081320358</v>
+        <v>3.589591063992151</v>
       </c>
       <c r="G179" t="n">
-        <v>0.811707438020725</v>
+        <v>0.6098768223521835</v>
       </c>
       <c r="H179" t="n">
-        <v>0.4525700162640717</v>
+        <v>0.7179182127984302</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0004560760311381394</v>
+        <v>0.000282208378232745</v>
       </c>
       <c r="C180" t="n">
-        <v>3.254427683162687e-05</v>
+        <v>6.553033095069372e-06</v>
       </c>
       <c r="D180" t="n">
-        <v>1.134570893539547e-05</v>
+        <v>7.172075548409455e-06</v>
       </c>
       <c r="E180" t="n">
-        <v>1.835727422885816e-05</v>
+        <v>1.136387371079661e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>2.251804831675237</v>
+        <v>1.614732824519756</v>
       </c>
       <c r="G180" t="n">
-        <v>0.8133187631279672</v>
+        <v>0.899461991080662</v>
       </c>
       <c r="H180" t="n">
-        <v>0.4503609663350475</v>
+        <v>0.3229465649039512</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0004094579121848522</v>
+        <v>0.0002789165350370565</v>
       </c>
       <c r="C181" t="n">
-        <v>2.275242700899101e-05</v>
+        <v>2.825535901154779e-05</v>
       </c>
       <c r="D181" t="n">
-        <v>1.055060804168087e-05</v>
+        <v>6.459138550680702e-06</v>
       </c>
       <c r="E181" t="n">
-        <v>1.703675762011746e-05</v>
+        <v>1.062431802949331e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>0.4837028489057936</v>
+        <v>3.347628057513262</v>
       </c>
       <c r="G181" t="n">
-        <v>0.9927078795796562</v>
+        <v>0.6465581134845383</v>
       </c>
       <c r="H181" t="n">
-        <v>0.09674056978115872</v>
+        <v>0.6695256115026524</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0004099164320973499</v>
+        <v>0.0002508565393513808</v>
       </c>
       <c r="C182" t="n">
-        <v>4.978835955076003e-05</v>
+        <v>-3.097058531919736e-06</v>
       </c>
       <c r="D182" t="n">
-        <v>9.548154644649472e-06</v>
+        <v>6.899969674421242e-06</v>
       </c>
       <c r="E182" t="n">
-        <v>1.580375367451645e-05</v>
+        <v>1.072093435440679e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>1.812268956134097</v>
+        <v>4.293690377478995</v>
       </c>
       <c r="G182" t="n">
-        <v>0.8744632213007568</v>
+        <v>0.5079517898620629</v>
       </c>
       <c r="H182" t="n">
-        <v>0.3624537912268194</v>
+        <v>0.8587380754957989</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0003640488234105062</v>
+        <v>0.0002142985517924306</v>
       </c>
       <c r="C183" t="n">
-        <v>4.330452376436205e-06</v>
+        <v>7.531990161160765e-06</v>
       </c>
       <c r="D183" t="n">
-        <v>1.018832689795424e-05</v>
+        <v>6.356474352290378e-06</v>
       </c>
       <c r="E183" t="n">
-        <v>1.60058239622955e-05</v>
+        <v>9.991014906158586e-06</v>
       </c>
       <c r="F183" t="n">
-        <v>5.012925948487176</v>
+        <v>6.571364837348528</v>
       </c>
       <c r="G183" t="n">
-        <v>0.4143047245199452</v>
+        <v>0.2545188638696393</v>
       </c>
       <c r="H183" t="n">
-        <v>1.002585189697435</v>
+        <v>1.314272967469706</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0003105201855704832</v>
+        <v>0.0001969013282940679</v>
       </c>
       <c r="C184" t="n">
-        <v>1.70978283968929e-05</v>
+        <v>-1.306153104016245e-06</v>
       </c>
       <c r="D184" t="n">
-        <v>9.450135315301503e-06</v>
+        <v>5.402570235170699e-06</v>
       </c>
       <c r="E184" t="n">
-        <v>1.516643635366532e-05</v>
+        <v>8.465750706031597e-06</v>
       </c>
       <c r="F184" t="n">
-        <v>7.087484503787163</v>
+        <v>6.742168490968696</v>
       </c>
       <c r="G184" t="n">
-        <v>0.2142148637533433</v>
+        <v>0.2405325134325252</v>
       </c>
       <c r="H184" t="n">
-        <v>1.417496900757433</v>
+        <v>1.348433698193739</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0002824683243079159</v>
+        <v>0.0001942394261816187</v>
       </c>
       <c r="C185" t="n">
-        <v>9.386937683787097e-06</v>
+        <v>2.088683680797579e-05</v>
       </c>
       <c r="D185" t="n">
-        <v>7.895121458866099e-06</v>
+        <v>5.346737628114314e-06</v>
       </c>
       <c r="E185" t="n">
-        <v>1.247376728364937e-05</v>
+        <v>8.687310931653956e-06</v>
       </c>
       <c r="F185" t="n">
-        <v>9.771635550582232</v>
+        <v>7.265883819112396</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0819705643488752</v>
+        <v>0.2016052272321175</v>
       </c>
       <c r="H185" t="n">
-        <v>1.954327110116446</v>
+        <v>1.453176763822479</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0002872441586728117</v>
+        <v>0.000192292960319392</v>
       </c>
       <c r="C186" t="n">
-        <v>3.706749184389089e-05</v>
+        <v>1.166757555199043e-05</v>
       </c>
       <c r="D186" t="n">
-        <v>7.994748172049547e-06</v>
+        <v>4.822126053836066e-06</v>
       </c>
       <c r="E186" t="n">
-        <v>1.30882611014897e-05</v>
+        <v>7.841538796242885e-06</v>
       </c>
       <c r="F186" t="n">
-        <v>2.003591430596603</v>
+        <v>8.442810155094632</v>
       </c>
       <c r="G186" t="n">
-        <v>0.8486478700704894</v>
+        <v>0.1334611254102409</v>
       </c>
       <c r="H186" t="n">
-        <v>0.4007182861193207</v>
+        <v>1.688562031018926</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0002805447396819122</v>
+        <v>0.0001879287838018449</v>
       </c>
       <c r="C187" t="n">
-        <v>2.569030235403987e-05</v>
+        <v>9.057694536298379e-06</v>
       </c>
       <c r="D187" t="n">
-        <v>7.107792440695109e-06</v>
+        <v>4.911661141398661e-06</v>
       </c>
       <c r="E187" t="n">
-        <v>1.161856670072281e-05</v>
+        <v>7.758253036635006e-06</v>
       </c>
       <c r="F187" t="n">
-        <v>8.208478024059387</v>
+        <v>5.47902231725674</v>
       </c>
       <c r="G187" t="n">
-        <v>0.145114102700914</v>
+        <v>0.3602516437308699</v>
       </c>
       <c r="H187" t="n">
-        <v>1.641695604811877</v>
+        <v>1.095804463451348</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0002751604983086574</v>
+        <v>0.0001805722021638861</v>
       </c>
       <c r="C188" t="n">
-        <v>2.118266826796027e-05</v>
+        <v>4.219313127791052e-06</v>
       </c>
       <c r="D188" t="n">
-        <v>7.279554480000574e-06</v>
+        <v>4.845668009684692e-06</v>
       </c>
       <c r="E188" t="n">
-        <v>1.159565714896234e-05</v>
+        <v>7.886332170559208e-06</v>
       </c>
       <c r="F188" t="n">
-        <v>4.988885846265547</v>
+        <v>23.60833499736874</v>
       </c>
       <c r="G188" t="n">
-        <v>0.4172380821739724</v>
+        <v>0.0002581519053592756</v>
       </c>
       <c r="H188" t="n">
-        <v>0.9977771692531094</v>
+        <v>4.721666999473748</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0002650738172963949</v>
+        <v>0.0002003417151262566</v>
       </c>
       <c r="C189" t="n">
-        <v>1.162784174735281e-05</v>
+        <v>4.356819195042134e-06</v>
       </c>
       <c r="D189" t="n">
-        <v>7.22087997558465e-06</v>
+        <v>4.76507050966861e-06</v>
       </c>
       <c r="E189" t="n">
-        <v>1.185719882029822e-05</v>
+        <v>7.67569137415972e-06</v>
       </c>
       <c r="F189" t="n">
-        <v>21.43964793604143</v>
+        <v>9.893584094464934</v>
       </c>
       <c r="G189" t="n">
-        <v>0.000668866645782739</v>
+        <v>0.0783072612379024</v>
       </c>
       <c r="H189" t="n">
-        <v>4.287929587208287</v>
+        <v>1.978716818892987</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0002941663398343904</v>
+        <v>0.0002323193084568684</v>
       </c>
       <c r="C190" t="n">
-        <v>1.306281149766439e-05</v>
+        <v>1.172141385608335e-05</v>
       </c>
       <c r="D190" t="n">
-        <v>7.036364259268336e-06</v>
+        <v>5.537819547176365e-06</v>
       </c>
       <c r="E190" t="n">
-        <v>1.139628823000842e-05</v>
+        <v>9.059979826900477e-06</v>
       </c>
       <c r="F190" t="n">
-        <v>8.947954704888009</v>
+        <v>5.88993245241892</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1111581635329193</v>
+        <v>0.3170767554467667</v>
       </c>
       <c r="H190" t="n">
-        <v>1.789590940977602</v>
+        <v>1.177986490483784</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0003413910095095451</v>
+        <v>0.0002632918480535111</v>
       </c>
       <c r="C191" t="n">
-        <v>2.640158818583566e-05</v>
+        <v>-1.358665422818432e-07</v>
       </c>
       <c r="D191" t="n">
-        <v>8.1733374728865e-06</v>
+        <v>6.185586697116528e-06</v>
       </c>
       <c r="E191" t="n">
-        <v>1.338960977413015e-05</v>
+        <v>9.944953818263214e-06</v>
       </c>
       <c r="F191" t="n">
-        <v>3.898250450138113</v>
+        <v>10.14997599946241</v>
       </c>
       <c r="G191" t="n">
-        <v>0.56415656977023</v>
+        <v>0.07109557638467495</v>
       </c>
       <c r="H191" t="n">
-        <v>0.7796500900276226</v>
+        <v>2.029995199892483</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0003875314875770607</v>
+        <v>0.0002976243236549727</v>
       </c>
       <c r="C192" t="n">
-        <v>6.828717054003315e-06</v>
+        <v>1.476353830825447e-05</v>
       </c>
       <c r="D192" t="n">
-        <v>9.14942935126958e-06</v>
+        <v>6.7677913853922e-06</v>
       </c>
       <c r="E192" t="n">
-        <v>1.473775859365397e-05</v>
+        <v>1.104263459896085e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>9.800250488017191</v>
+        <v>7.305463046054947</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08109699646695522</v>
+        <v>0.1988956693279093</v>
       </c>
       <c r="H192" t="n">
-        <v>1.960050097603438</v>
+        <v>1.461092609210989</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004384564631324872</v>
+        <v>0.0003461968780731135</v>
       </c>
       <c r="C193" t="n">
-        <v>2.405976814169055e-05</v>
+        <v>2.684001942467376e-05</v>
       </c>
       <c r="D193" t="n">
-        <v>1.00455787520864e-05</v>
+        <v>7.77695412428254e-06</v>
       </c>
       <c r="E193" t="n">
-        <v>1.651853814628103e-05</v>
+        <v>1.28733543812252e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>6.411625150273161</v>
+        <v>5.326831414208406</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2682001037283877</v>
+        <v>0.3773081336387195</v>
       </c>
       <c r="H193" t="n">
-        <v>1.282325030054632</v>
+        <v>1.065366282841681</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0005095798746069032</v>
+        <v>0.0003901898660483963</v>
       </c>
       <c r="C194" t="n">
-        <v>4.428701166072231e-05</v>
+        <v>2.809543079383833e-05</v>
       </c>
       <c r="D194" t="n">
-        <v>1.151304446492543e-05</v>
+        <v>8.774085124397104e-06</v>
       </c>
       <c r="E194" t="n">
-        <v>1.914201186776898e-05</v>
+        <v>1.438688215724048e-05</v>
       </c>
       <c r="F194" t="n">
-        <v>4.352487423670476</v>
+        <v>2.392380681094662</v>
       </c>
       <c r="G194" t="n">
-        <v>0.4998592436821092</v>
+        <v>0.7926082446259038</v>
       </c>
       <c r="H194" t="n">
-        <v>0.8704974847340953</v>
+        <v>0.4784761362189324</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0005726788235305503</v>
+        <v>0.0003747897979068573</v>
       </c>
       <c r="C195" t="n">
-        <v>4.985840639959373e-05</v>
+        <v>2.691859781227387e-05</v>
       </c>
       <c r="D195" t="n">
-        <v>1.293044952568806e-05</v>
+        <v>8.271798339616238e-06</v>
       </c>
       <c r="E195" t="n">
-        <v>2.123345635787616e-05</v>
+        <v>1.383112295462116e-05</v>
       </c>
       <c r="F195" t="n">
-        <v>1.400198697859709</v>
+        <v>7.020165198212042</v>
       </c>
       <c r="G195" t="n">
-        <v>0.9242915361538097</v>
+        <v>0.2191449116726325</v>
       </c>
       <c r="H195" t="n">
-        <v>0.2800397395719418</v>
+        <v>1.404033039642408</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0005522353185451224</v>
+        <v>0.0003768496009755671</v>
       </c>
       <c r="C196" t="n">
-        <v>4.75895702626089e-05</v>
+        <v>1.951962074258463e-05</v>
       </c>
       <c r="D196" t="n">
-        <v>1.221197819662676e-05</v>
+        <v>8.198514567185634e-06</v>
       </c>
       <c r="E196" t="n">
-        <v>2.039868965351986e-05</v>
+        <v>1.349920410202792e-05</v>
       </c>
       <c r="F196" t="n">
-        <v>5.405407246736094</v>
+        <v>4.633713434365705</v>
       </c>
       <c r="G196" t="n">
-        <v>0.3684298320293423</v>
+        <v>0.4621947409469345</v>
       </c>
       <c r="H196" t="n">
-        <v>1.081081449347219</v>
+        <v>0.9267426868731411</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0005491635867882192</v>
+        <v>0.0003378704500440053</v>
       </c>
       <c r="C197" t="n">
-        <v>4.13855873149527e-05</v>
+        <v>2.194853344383163e-05</v>
       </c>
       <c r="D197" t="n">
-        <v>1.196534917948046e-05</v>
+        <v>7.368262568170489e-06</v>
       </c>
       <c r="E197" t="n">
-        <v>1.984962757162925e-05</v>
+        <v>1.208230881359297e-05</v>
       </c>
       <c r="F197" t="n">
-        <v>4.175173542718185</v>
+        <v>1.739240302814036</v>
       </c>
       <c r="G197" t="n">
-        <v>0.5244809394980074</v>
+        <v>0.88391953515442</v>
       </c>
       <c r="H197" t="n">
-        <v>0.835034708543637</v>
+        <v>0.3478480605628071</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0004979066206037754</v>
+        <v>0.0003340553487927641</v>
       </c>
       <c r="C198" t="n">
-        <v>3.827338342235953e-05</v>
+        <v>2.306147541914714e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>1.087893219948238e-05</v>
+        <v>7.215531743416741e-06</v>
       </c>
       <c r="E198" t="n">
-        <v>1.784139438417838e-05</v>
+        <v>1.202558999031939e-05</v>
       </c>
       <c r="F198" t="n">
-        <v>0.6793525997058922</v>
+        <v>4.74378741803449</v>
       </c>
       <c r="G198" t="n">
-        <v>0.9840826058297603</v>
+        <v>0.4479418782544164</v>
       </c>
       <c r="H198" t="n">
-        <v>0.1358705199411784</v>
+        <v>0.9487574836068979</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0004918999907646379</v>
+        <v>0.0002947581773900507</v>
       </c>
       <c r="C199" t="n">
-        <v>4.119880928230458e-05</v>
+        <v>1.771169936056201e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>1.062829495142637e-05</v>
+        <v>6.385382828527262e-06</v>
       </c>
       <c r="E199" t="n">
-        <v>1.770203469587361e-05</v>
+        <v>1.045743887525918e-05</v>
       </c>
       <c r="F199" t="n">
-        <v>3.204807388620506</v>
+        <v>3.65412407656454</v>
       </c>
       <c r="G199" t="n">
-        <v>0.6684441154973452</v>
+        <v>0.600205555610552</v>
       </c>
       <c r="H199" t="n">
-        <v>0.6409614777241012</v>
+        <v>0.7308248153129079</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0004332411031104108</v>
+        <v>0.000284343284434682</v>
       </c>
       <c r="C200" t="n">
-        <v>3.369982090026382e-05</v>
+        <v>1.700719657263706e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>9.383334786554029e-06</v>
+        <v>6.108917174287238e-06</v>
       </c>
       <c r="E200" t="n">
-        <v>1.535082108170279e-05</v>
+        <v>1.013662198004102e-05</v>
       </c>
       <c r="F200" t="n">
-        <v>2.303337974975357</v>
+        <v>4.460099948248566</v>
       </c>
       <c r="G200" t="n">
-        <v>0.8057764872714308</v>
+        <v>0.4852396123923879</v>
       </c>
       <c r="H200" t="n">
-        <v>0.4606675949950714</v>
+        <v>0.8920199896497133</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0004180180712605678</v>
+        <v>0.0002762025800194134</v>
       </c>
       <c r="C201" t="n">
-        <v>3.248431946268325e-05</v>
+        <v>1.276597223582657e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>8.966595102086358e-06</v>
+        <v>5.930279280230887e-06</v>
       </c>
       <c r="E201" t="n">
-        <v>1.482601321871587e-05</v>
+        <v>9.720750701751339e-06</v>
       </c>
       <c r="F201" t="n">
-        <v>2.975050378832423</v>
+        <v>2.565355966192504</v>
       </c>
       <c r="G201" t="n">
-        <v>0.7038325099069866</v>
+        <v>0.7666217659795058</v>
       </c>
       <c r="H201" t="n">
-        <v>0.5950100757664847</v>
+        <v>0.5130711932385008</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
-        <v>0.000406006132143188</v>
+        <v>0.0003527105401187479</v>
       </c>
       <c r="C202" t="n">
-        <v>2.598340726563315e-05</v>
+        <v>1.758392636051108e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>8.706886538331632e-06</v>
+        <v>7.802160665136141e-06</v>
       </c>
       <c r="E202" t="n">
-        <v>1.424560334232128e-05</v>
+        <v>1.276549415630222e-05</v>
       </c>
       <c r="F202" t="n">
-        <v>1.333005886731806</v>
+        <v>1.968838892524674</v>
       </c>
       <c r="G202" t="n">
-        <v>0.9314990333640614</v>
+        <v>0.8534397590696592</v>
       </c>
       <c r="H202" t="n">
-        <v>0.2666011773463611</v>
+        <v>0.3937677785049348</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0005198307463743067</v>
+        <v>0.0003092128772428525</v>
       </c>
       <c r="C203" t="n">
-        <v>3.316347122635081e-05</v>
+        <v>1.844491560099989e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>1.152667325039734e-05</v>
+        <v>6.563568277297663e-06</v>
       </c>
       <c r="E203" t="n">
-        <v>1.887384318876706e-05</v>
+        <v>1.092603682344013e-05</v>
       </c>
       <c r="F203" t="n">
-        <v>1.132419556010386</v>
+        <v>4.436783259454812</v>
       </c>
       <c r="G203" t="n">
-        <v>0.9511941424098138</v>
+        <v>0.4883859130588916</v>
       </c>
       <c r="H203" t="n">
-        <v>0.2264839112020773</v>
+        <v>0.8873566518909625</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
-        <v>0.000455077541462093</v>
+        <v>0.0003257694628109489</v>
       </c>
       <c r="C204" t="n">
-        <v>3.371868478362631e-05</v>
+        <v>1.095624190599565e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>9.650609921573536e-06</v>
+        <v>7.326447091542129e-06</v>
       </c>
       <c r="E204" t="n">
-        <v>1.606032729893605e-05</v>
+        <v>1.180711223474639e-05</v>
       </c>
       <c r="F204" t="n">
-        <v>3.263362977184287</v>
+        <v>2.130830896243661</v>
       </c>
       <c r="G204" t="n">
-        <v>0.6594552920132262</v>
+        <v>0.8307619706792087</v>
       </c>
       <c r="H204" t="n">
-        <v>0.6526725954368574</v>
+        <v>0.4261661792487321</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004796617863815158</v>
+        <v>0.0002966534912566576</v>
       </c>
       <c r="C205" t="n">
-        <v>1.96530132532929e-05</v>
+        <v>1.44845011274214e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>1.085343645728173e-05</v>
+        <v>6.690646306684597e-06</v>
       </c>
       <c r="E205" t="n">
-        <v>1.760996963692033e-05</v>
+        <v>1.089146478055581e-05</v>
       </c>
       <c r="F205" t="n">
-        <v>1.811546401919956</v>
+        <v>1.669028294780381</v>
       </c>
       <c r="G205" t="n">
-        <v>0.8745579349546121</v>
+        <v>0.8927783309179836</v>
       </c>
       <c r="H205" t="n">
-        <v>0.3623092803839912</v>
+        <v>0.3338056589560762</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.591709508781143</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0005245695043401855</v>
+        <v>0.0002792376486705193</v>
       </c>
       <c r="C206" t="n">
-        <v>4.239614297233996e-05</v>
+        <v>1.469818678561605e-05</v>
       </c>
       <c r="D206" t="n">
-        <v>1.128337820925222e-05</v>
+        <v>6.338193809743784e-06</v>
       </c>
       <c r="E206" t="n">
-        <v>1.88634665312318e-05</v>
+        <v>1.037020792790508e-05</v>
       </c>
       <c r="F206" t="n">
-        <v>4.613180327064033</v>
+        <v>2.789956705301957</v>
       </c>
       <c r="G206" t="n">
-        <v>0.4648845612184263</v>
+        <v>0.7323292896944681</v>
       </c>
       <c r="H206" t="n">
-        <v>0.9226360654128065</v>
+        <v>0.5579913410603915</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0004355469044395682</v>
+        <v>0.0002649699879018213</v>
       </c>
       <c r="C207" t="n">
-        <v>2.821494881641632e-05</v>
+        <v>1.562612726763881e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>9.862013071611237e-06</v>
+        <v>6.022230532953013e-06</v>
       </c>
       <c r="E207" t="n">
-        <v>1.608365529223992e-05</v>
+        <v>9.850166412067761e-06</v>
       </c>
       <c r="F207" t="n">
-        <v>1.066173469031777</v>
+        <v>3.540573261368168</v>
       </c>
       <c r="G207" t="n">
-        <v>0.9570538088573173</v>
+        <v>0.6172574679336491</v>
       </c>
       <c r="H207" t="n">
-        <v>0.2132346938063553</v>
+        <v>0.7081146522736337</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0004109426697840312</v>
+        <v>0.000248766851873757</v>
       </c>
       <c r="C208" t="n">
-        <v>2.523742253621929e-05</v>
+        <v>1.051324042076107e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>9.372631103158319e-06</v>
+        <v>5.73099970930361e-06</v>
       </c>
       <c r="E208" t="n">
-        <v>1.532091707318079e-05</v>
+        <v>9.254315016356775e-06</v>
       </c>
       <c r="F208" t="n">
-        <v>1.49952561724341</v>
+        <v>1.149253424675534</v>
       </c>
       <c r="G208" t="n">
-        <v>0.9131245516989484</v>
+        <v>0.9496521726739542</v>
       </c>
       <c r="H208" t="n">
-        <v>0.299905123448682</v>
+        <v>0.2298506849351068</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003902533735431211</v>
+        <v>0.0002295999521260622</v>
       </c>
       <c r="C209" t="n">
-        <v>2.602037353864416e-05</v>
+        <v>1.025848288828168e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>8.921084444952444e-06</v>
+        <v>5.048210515263011e-06</v>
       </c>
       <c r="E209" t="n">
-        <v>1.462012332622935e-05</v>
+        <v>8.189401332491402e-06</v>
       </c>
       <c r="F209" t="n">
-        <v>2.488794991339064</v>
+        <v>1.897070095932073</v>
       </c>
       <c r="G209" t="n">
-        <v>0.7781816142148787</v>
+        <v>0.8631961875720404</v>
       </c>
       <c r="H209" t="n">
-        <v>0.4977589982678127</v>
+        <v>0.3794140191864147</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003668747203723424</v>
+        <v>0.0002334066735465483</v>
       </c>
       <c r="C210" t="n">
-        <v>1.732749007094398e-05</v>
+        <v>3.360603902729007e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>8.525031315940601e-06</v>
+        <v>5.33327105799066e-06</v>
       </c>
       <c r="E210" t="n">
-        <v>1.387443603891315e-05</v>
+        <v>8.54080756995546e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>0.7376346003087182</v>
+        <v>2.5718809309388</v>
       </c>
       <c r="G210" t="n">
-        <v>0.9808395321645315</v>
+        <v>0.7656328764057705</v>
       </c>
       <c r="H210" t="n">
-        <v>0.1475269200617436</v>
+        <v>0.51437618618776</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0003387396097862473</v>
+        <v>0.0001202676524807527</v>
       </c>
       <c r="C211" t="n">
-        <v>1.848132509974952e-05</v>
+        <v>5.684033995692039e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>7.472574119057161e-06</v>
+        <v>2.676473655807249e-06</v>
       </c>
       <c r="E211" t="n">
-        <v>1.215202928588384e-05</v>
+        <v>4.361159838358815e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>1.230483119427401</v>
+        <v>6.206376884330222</v>
       </c>
       <c r="G211" t="n">
-        <v>0.9419197082201988</v>
+        <v>0.286652413092089</v>
       </c>
       <c r="H211" t="n">
-        <v>0.2460966238854802</v>
+        <v>1.241275376866044</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.600536472713462</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003658018089348383</v>
+        <v>4.999730323222052e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>2.523121459246691e-05</v>
+        <v>2.559084624824157e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>7.992329410427313e-06</v>
+        <v>1.196471221767991e-06</v>
       </c>
       <c r="E212" t="n">
-        <v>1.319911250018787e-05</v>
+        <v>1.939444531493805e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>3.517255668930791</v>
+        <v>5.102242630367241</v>
       </c>
       <c r="G212" t="n">
-        <v>0.6207782492151792</v>
+        <v>0.4035303239191357</v>
       </c>
       <c r="H212" t="n">
-        <v>0.7034511337861582</v>
+        <v>1.020448526073448</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0003434979033299088</v>
+        <v>3.10685884608055e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>1.203017713181828e-05</v>
+        <v>1.047997517062975e-06</v>
       </c>
       <c r="D213" t="n">
-        <v>7.870765132502504e-06</v>
+        <v>7.659711476644534e-07</v>
       </c>
       <c r="E213" t="n">
-        <v>1.262307604980843e-05</v>
+        <v>1.230699894365154e-06</v>
       </c>
       <c r="F213" t="n">
-        <v>1.756387924053881</v>
+        <v>4.18694478880278</v>
       </c>
       <c r="G213" t="n">
-        <v>0.8817206597888987</v>
+        <v>0.5228265601779225</v>
       </c>
       <c r="H213" t="n">
-        <v>0.3512775848107762</v>
+        <v>0.837388957760556</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.603295970175799</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0004124041886874207</v>
+        <v>4.413380581619173e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>2.699181420007409e-05</v>
+        <v>3.141972767989372e-06</v>
       </c>
       <c r="D214" t="n">
-        <v>8.954552457040146e-06</v>
+        <v>1.021210939551187e-06</v>
       </c>
       <c r="E214" t="n">
-        <v>1.482299572226442e-05</v>
+        <v>1.702788147577478e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>4.934857443426983</v>
+        <v>6.726680544812432</v>
       </c>
       <c r="G214" t="n">
-        <v>0.4238819554068856</v>
+        <v>0.2417737994469451</v>
       </c>
       <c r="H214" t="n">
-        <v>0.9869714886853966</v>
+        <v>1.345336108962486</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.604949954679621</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002855297679174855</v>
+        <v>2.725097350184076e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>2.669429593506073e-05</v>
+        <v>1.306799022645957e-06</v>
       </c>
       <c r="D215" t="n">
-        <v>6.169906033971544e-06</v>
+        <v>6.570862963423158e-07</v>
       </c>
       <c r="E215" t="n">
-        <v>1.027949893941244e-05</v>
+        <v>1.062880408524224e-06</v>
       </c>
       <c r="F215" t="n">
-        <v>4.072325631027616</v>
+        <v>1.73499251074792</v>
       </c>
       <c r="G215" t="n">
-        <v>0.5390505700662909</v>
+        <v>0.8844621420263351</v>
       </c>
       <c r="H215" t="n">
-        <v>0.8144651262055232</v>
+        <v>0.3469985021495839</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0001765386564641008</v>
+        <v>2.218804852879497e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>1.233781693498782e-05</v>
+        <v>1.702934565017817e-06</v>
       </c>
       <c r="D216" t="n">
-        <v>3.932267946169989e-06</v>
+        <v>5.363039178952818e-07</v>
       </c>
       <c r="E216" t="n">
-        <v>6.403558730906593e-06</v>
+        <v>8.755321985894954e-07</v>
       </c>
       <c r="F216" t="n">
-        <v>4.767945570569298</v>
+        <v>4.639212011098183</v>
       </c>
       <c r="G216" t="n">
-        <v>0.444851772205638</v>
+        <v>0.4614760798258726</v>
       </c>
       <c r="H216" t="n">
-        <v>0.9535891141138595</v>
+        <v>0.9278424022196367</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
-        <v>7.308297516555962e-05</v>
+        <v>1.885578203647702e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>5.379454358898077e-06</v>
+        <v>2.009410405469219e-06</v>
       </c>
       <c r="D217" t="n">
-        <v>1.764962647816456e-06</v>
+        <v>4.401440057158024e-07</v>
       </c>
       <c r="E217" t="n">
-        <v>2.892309177283687e-06</v>
+        <v>7.221756670570753e-07</v>
       </c>
       <c r="F217" t="n">
-        <v>5.824204471551345</v>
+        <v>1.992083545700266</v>
       </c>
       <c r="G217" t="n">
-        <v>0.3237021924419202</v>
+        <v>0.8502393417305391</v>
       </c>
       <c r="H217" t="n">
-        <v>1.164840894310269</v>
+        <v>0.3984167091400532</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
-        <v>4.553117406497514e-05</v>
+        <v>1.924354369423247e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>2.322137715529961e-06</v>
+        <v>2.562109219018939e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>1.137825705871497e-06</v>
+        <v>4.565760468598391e-07</v>
       </c>
       <c r="E218" t="n">
-        <v>1.859048689748186e-06</v>
+        <v>7.449540417550732e-07</v>
       </c>
       <c r="F218" t="n">
-        <v>4.287968911681066</v>
+        <v>14.05229565325482</v>
       </c>
       <c r="G218" t="n">
-        <v>0.5087431354262411</v>
+        <v>0.015280617479041</v>
       </c>
       <c r="H218" t="n">
-        <v>0.8575937823362132</v>
+        <v>2.810459130650965</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
-        <v>6.467902331177632e-05</v>
+        <v>2.774658316021075e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>6.13624201255693e-06</v>
+        <v>3.571879904543169e-06</v>
       </c>
       <c r="D219" t="n">
-        <v>1.503207699004106e-06</v>
+        <v>6.323583994855384e-07</v>
       </c>
       <c r="E219" t="n">
-        <v>2.526917920554849e-06</v>
+        <v>1.077040061819879e-06</v>
       </c>
       <c r="F219" t="n">
-        <v>5.328046683229956</v>
+        <v>10.30334356198285</v>
       </c>
       <c r="G219" t="n">
-        <v>0.3771696494209934</v>
+        <v>0.067082484423495</v>
       </c>
       <c r="H219" t="n">
-        <v>1.065609336645991</v>
+        <v>2.06066871239657</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
-        <v>4.010718954472849e-05</v>
+        <v>5.175507427089846e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>2.321097963528084e-06</v>
+        <v>3.997675663599535e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>9.752114911100915e-07</v>
+        <v>1.139968059797998e-06</v>
       </c>
       <c r="E220" t="n">
-        <v>1.583799955204705e-06</v>
+        <v>1.897981201049692e-06</v>
       </c>
       <c r="F220" t="n">
-        <v>1.145496678767799</v>
+        <v>2.8603761173174</v>
       </c>
       <c r="G220" t="n">
-        <v>0.9499981194482009</v>
+        <v>0.7215011615443434</v>
       </c>
       <c r="H220" t="n">
-        <v>0.2290993357535598</v>
+        <v>0.5720752234634799</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
-        <v>3.269251992863089e-05</v>
+        <v>5.804622474835929e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>2.957169869168779e-06</v>
+        <v>4.396539728956599e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>8.011030533905279e-07</v>
+        <v>1.278777630185033e-06</v>
       </c>
       <c r="E221" t="n">
-        <v>1.327205631593044e-06</v>
+        <v>2.136960321935351e-06</v>
       </c>
       <c r="F221" t="n">
-        <v>4.150848359461826</v>
+        <v>5.750497999538667</v>
       </c>
       <c r="G221" t="n">
-        <v>0.5279083742977867</v>
+        <v>0.3312584741547532</v>
       </c>
       <c r="H221" t="n">
-        <v>0.8301696718923651</v>
+        <v>1.150099599907733</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
-        <v>2.789093455088311e-05</v>
+        <v>5.091039311935226e-05</v>
       </c>
       <c r="C222" t="n">
-        <v>2.633141223258273e-06</v>
+        <v>4.33094597611557e-06</v>
       </c>
       <c r="D222" t="n">
-        <v>6.618631678515782e-07</v>
+        <v>1.104055809776642e-06</v>
       </c>
       <c r="E222" t="n">
-        <v>1.106163562944929e-06</v>
+        <v>1.848757992160666e-06</v>
       </c>
       <c r="F222" t="n">
-        <v>3.957522839025618</v>
+        <v>5.694528025368403</v>
       </c>
       <c r="G222" t="n">
-        <v>0.5555477301041268</v>
+        <v>0.3370861689623365</v>
       </c>
       <c r="H222" t="n">
-        <v>0.7915045678051237</v>
+        <v>1.138905605073681</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
-        <v>2.821194933816225e-05</v>
+        <v>4.536026952786826e-05</v>
       </c>
       <c r="C223" t="n">
-        <v>3.151715295280134e-06</v>
+        <v>4.252733775958376e-06</v>
       </c>
       <c r="D223" t="n">
-        <v>6.84663757003832e-07</v>
+        <v>1.005937485458142e-06</v>
       </c>
       <c r="E223" t="n">
-        <v>1.153965916873842e-06</v>
+        <v>1.673171840843518e-06</v>
       </c>
       <c r="F223" t="n">
-        <v>14.78519330267446</v>
+        <v>2.120305555909136</v>
       </c>
       <c r="G223" t="n">
-        <v>0.01132070844958799</v>
+        <v>0.8322605359937769</v>
       </c>
       <c r="H223" t="n">
-        <v>2.957038660534892</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>4.630650988498092</v>
-      </c>
-      <c r="B224" t="n">
-        <v>4.090593199965498e-05</v>
-      </c>
-      <c r="C224" t="n">
-        <v>5.736078999610328e-06</v>
-      </c>
-      <c r="D224" t="n">
-        <v>9.386150394811649e-07</v>
-      </c>
-      <c r="E224" t="n">
-        <v>1.594923600181274e-06</v>
-      </c>
-      <c r="F224" t="n">
-        <v>6.588523278288052</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0.2530840900313855</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1.31770465565761</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>4.639795037542543</v>
-      </c>
-      <c r="B225" t="n">
-        <v>7.610361490912712e-05</v>
-      </c>
-      <c r="C225" t="n">
-        <v>6.592079175148406e-06</v>
-      </c>
-      <c r="D225" t="n">
-        <v>1.683816562519829e-06</v>
-      </c>
-      <c r="E225" t="n">
-        <v>2.818310278894863e-06</v>
-      </c>
-      <c r="F225" t="n">
-        <v>2.303479972348354</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0.8057556209064696</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0.4606959944696707</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>4.64860486173907</v>
-      </c>
-      <c r="B226" t="n">
-        <v>8.53285518940943e-05</v>
-      </c>
-      <c r="C226" t="n">
-        <v>7.43991081499126e-06</v>
-      </c>
-      <c r="D226" t="n">
-        <v>1.889277799548367e-06</v>
-      </c>
-      <c r="E226" t="n">
-        <v>3.17685380112116e-06</v>
-      </c>
-      <c r="F226" t="n">
-        <v>4.914402198314685</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0.4264158230602588</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0.9828804396629371</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="B227" t="n">
-        <v>7.499608009493121e-05</v>
-      </c>
-      <c r="C227" t="n">
-        <v>7.265860812755697e-06</v>
-      </c>
-      <c r="D227" t="n">
-        <v>1.630238004894516e-06</v>
-      </c>
-      <c r="E227" t="n">
-        <v>2.737518832135577e-06</v>
-      </c>
-      <c r="F227" t="n">
-        <v>4.886432308655955</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0.4298969248014799</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0.977286461731191</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="B228" t="n">
-        <v>6.663080496434497e-05</v>
-      </c>
-      <c r="C228" t="n">
-        <v>6.791806723460396e-06</v>
-      </c>
-      <c r="D228" t="n">
-        <v>1.486016717455953e-06</v>
-      </c>
-      <c r="E228" t="n">
-        <v>2.486949025158206e-06</v>
-      </c>
-      <c r="F228" t="n">
-        <v>1.771293263056315</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0.8797984308728702</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0.3542586526112629</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>4.662710864294989</v>
-      </c>
-      <c r="B229" t="n">
-        <v>6.905074895594563e-05</v>
-      </c>
-      <c r="C229" t="n">
-        <v>4.249303085111194e-06</v>
-      </c>
-      <c r="D229" t="n">
-        <v>1.61285072270483e-06</v>
-      </c>
-      <c r="E229" t="n">
-        <v>2.686582324821341e-06</v>
-      </c>
-      <c r="F229" t="n">
-        <v>4.895832973385922</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0.4287248224499688</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0.9791665946771845</v>
+        <v>0.4240611111818272</v>
       </c>
     </row>
   </sheetData>
